--- a/AfDD_2023_Annex_Table_Tab12.xlsx
+++ b/AfDD_2023_Annex_Table_Tab12.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>

--- a/AfDD_2023_Annex_Table_Tab12.xlsx
+++ b/AfDD_2023_Annex_Table_Tab12.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3577E534-34B0-4866-AFBC-8EBDC65039E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC009A3A-4D49-40C5-8343-EF493700E20A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab12'!$A$2:$J$99</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab12'!$A$1:$I$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab12'!$A$2:$J$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab12'!$A$1:$I$98</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="173">
   <si>
     <t>Table 12: Gender indicators</t>
   </si>
@@ -325,7 +337,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -514,7 +526,7 @@
     <t>ROW, Fragile States</t>
   </si>
   <si>
-    <t>Extremely Fragile States</t>
+    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
@@ -524,9 +536,6 @@
   </si>
   <si>
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Source: United Nations Development Programme Human Development Data Online (2021 edition), Social Institutions and Gender Index, OECD Development Centre (updated with new methodology December 2018).</t>
@@ -550,7 +559,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
@@ -862,23 +871,22 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -923,10 +931,7 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -941,7 +946,7 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -959,7 +964,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -974,7 +979,7 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -983,7 +988,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1001,7 +1006,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1016,7 +1021,7 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1031,7 +1036,7 @@
     <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1049,16 +1054,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
@@ -1097,7 +1098,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1109,7 +1110,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1156,6 +1157,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1191,6 +1209,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1342,23 +1377,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B865AD-A125-4AB5-A6F9-C033B3057954}">
+  <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="13.26953125" style="68" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="13.26953125" style="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1372,3185 +1406,3158 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>0.58099999999999996</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>0.90300000000000002</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>0.53600000000000003</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="15">
+      <c r="F3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="14">
         <v>47.2</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>19</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="16" t="s">
+      <c r="I3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>0.73499999999999999</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>0.998</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>0.46500000000000002</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="20">
+      <c r="F4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="19">
         <v>39.6</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="20">
+      <c r="H4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="19">
         <v>39.9</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="20">
         <v>52.4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="22">
         <v>0.61099999999999999</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="22">
         <v>0.996</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="23">
         <v>0.56699999999999995</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="26">
+      <c r="F5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="24">
         <v>59.2</v>
       </c>
-      <c r="H5" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="27" t="s">
+      <c r="H5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="22">
         <v>0.52700000000000002</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="22">
         <v>1.014</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="23">
         <v>0.55300000000000005</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="24">
         <v>38.1</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="24">
         <v>46.5</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="24">
         <v>26.9</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="24">
         <v>40.5</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="25">
         <v>37.6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <v>0.48299999999999998</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="22">
         <v>0.98599999999999999</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="23">
         <v>0.56499999999999995</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="24">
         <v>41.4</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="24">
         <v>38.5</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="24">
         <v>24.1</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="24">
         <v>37.4</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="25">
         <v>61.9</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="22">
         <v>0.45600000000000002</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="22">
         <v>0.91200000000000003</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="23">
         <v>0.52300000000000002</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="24">
         <v>24.3</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="24">
         <v>32</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="24">
         <v>15.5</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="24">
         <v>15.3</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="25">
         <v>32.9</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="22">
         <v>0.64600000000000002</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="22">
         <v>1.0069999999999999</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="23">
         <v>0.44</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="24">
         <v>27.1</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="24">
         <v>33.1</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="24">
         <v>12.6</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="24">
         <v>26.2</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="25">
         <v>35.1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="22">
         <v>0.70899999999999996</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="22">
         <v>0.98599999999999999</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="23">
         <v>0.40600000000000003</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="24">
         <v>22.4</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="24">
         <v>33.200000000000003</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="24">
         <v>15.1</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="24">
         <v>19.600000000000001</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="25">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>0.58399999999999996</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>0.95799999999999996</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>0.53900000000000003</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <v>34.799999999999997</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <v>40.700000000000003</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <v>27.6</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <v>28.2</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="20">
         <v>41.8</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="27">
         <v>0.57099999999999995</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="27">
         <v>0.93100000000000005</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="28">
         <v>0.52700000000000002</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="29">
         <v>32.4</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="29">
         <v>42.8</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="29">
         <v>20.2</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="29">
         <v>34.299999999999997</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="30">
         <v>30.9</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="33">
         <v>0.59030000000000005</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="33">
         <v>0.96909999999999996</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="34">
         <v>0.5121</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="35">
         <v>31.5</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="35">
         <v>41.28</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="35">
         <v>20.125</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="35">
         <v>30.175000000000001</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="36">
         <v>39.200000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="22">
         <v>0.433</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="22">
         <v>0.999</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="23">
         <v>0.504</v>
       </c>
-      <c r="F14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="26">
+      <c r="F14" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="24">
         <v>31.9</v>
       </c>
-      <c r="I14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="27" t="s">
+      <c r="I14" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="22">
         <v>0.56299999999999994</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="22">
         <v>0.86399999999999999</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="23">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="24">
         <v>51.8</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="24">
         <v>51.1</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="24">
         <v>26.3</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="24">
         <v>77.7</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="25">
         <v>45.4</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="22">
         <v>0.39700000000000002</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="22">
         <v>0.80100000000000005</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="23">
         <v>0.68</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="24">
         <v>43.4</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="24">
         <v>56.4</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="24">
         <v>24.5</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="24">
         <v>35.1</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="25">
         <v>54.2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>0.39800000000000002</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>0.76400000000000001</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>0.71</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <v>45.4</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="14">
         <v>55.8</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="14">
         <v>32.200000000000003</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="14">
         <v>61.9</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="15">
         <v>27.2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>0.57399999999999995</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>0.92900000000000005</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="15">
+      <c r="F18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="14">
         <v>42.8</v>
       </c>
-      <c r="H18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="16">
+      <c r="H18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="15">
         <v>58.3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <v>0.48</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <v>0.84499999999999997</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <v>0.61699999999999999</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="19">
         <v>39.5</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="19">
         <v>53</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="19">
         <v>35.1</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="19">
         <v>46.4</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="20">
         <v>20.7</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>0.59199999999999997</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="15">
+      <c r="D20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="14">
         <v>63.9</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="14">
         <v>37.5</v>
       </c>
-      <c r="I20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="16" t="s">
+      <c r="I20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>0.70299999999999996</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>0.91600000000000004</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <v>0.52500000000000002</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <v>40.1</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <v>50.5</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="14">
         <v>37.299999999999997</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="14">
         <v>45.5</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="15">
         <v>25.6</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="22">
         <v>0.625</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="22">
         <v>0.90600000000000003</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="23">
         <v>0.53700000000000003</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="26">
+      <c r="F22" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="24">
         <v>16.399999999999999</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="24">
         <v>13.8</v>
       </c>
-      <c r="I22" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="27" t="s">
+      <c r="I22" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="33">
         <v>0.52944444444444005</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="33">
         <v>0.878</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="34">
         <v>0.58787500000000004</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="35">
         <v>44.04</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="35">
         <v>48.737499999999997</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="35">
         <v>29.824999999999999</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="35">
         <v>53.32</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="36">
         <v>38.566666666666698</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="22">
         <v>0.55400000000000005</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="22">
         <v>0.89100000000000001</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="26">
+      <c r="E24" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="24">
         <v>80.900000000000006</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="24">
         <v>28.2</v>
       </c>
-      <c r="I24" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="27" t="s">
+      <c r="I24" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="22">
         <v>0.52400000000000002</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="26">
+      <c r="D25" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="24">
         <v>72.900000000000006</v>
       </c>
-      <c r="H25" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="27" t="s">
+      <c r="H25" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="22">
         <v>0.45900000000000002</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="26">
+      <c r="D26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="24">
         <v>42</v>
       </c>
-      <c r="H26" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="27" t="s">
+      <c r="H26" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="22">
         <v>0.48499999999999999</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="22">
         <v>0.83699999999999997</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="23">
         <v>0.51700000000000002</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="24">
         <v>29.6</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="24">
         <v>34.799999999999997</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="24">
         <v>30.8</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="24">
         <v>34</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="25">
         <v>17.899999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="22">
         <v>0.60099999999999998</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="22">
         <v>0.93700000000000006</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="23">
         <v>0.51800000000000002</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="24">
         <v>35.5</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="24">
         <v>50.5</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="24">
         <v>28.9</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="24">
         <v>42.2</v>
       </c>
-      <c r="J28" s="27">
+      <c r="J28" s="25">
         <v>17.2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="22">
         <v>0.52800000000000002</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="22">
         <v>0.95199999999999996</v>
       </c>
-      <c r="E29" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="26">
+      <c r="E29" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="24">
         <v>47.5</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="24">
         <v>57.2</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="24">
         <v>31.6</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="24">
         <v>39.200000000000003</v>
       </c>
-      <c r="J29" s="27">
+      <c r="J29" s="25">
         <v>59.4</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="22">
         <v>0.80400000000000005</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="22">
         <v>0.97599999999999998</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="23">
         <v>0.34699999999999998</v>
       </c>
-      <c r="F30" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="26">
+      <c r="F30" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="24">
         <v>52.7</v>
       </c>
-      <c r="H30" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="26">
+      <c r="H30" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="24">
         <v>19.2</v>
       </c>
-      <c r="J30" s="27">
+      <c r="J30" s="25">
         <v>40.700000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="22">
         <v>0.54300000000000004</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="22">
         <v>0.94499999999999995</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="23">
         <v>0.40200000000000002</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="24">
         <v>27.6</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="24">
         <v>38</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="24">
         <v>21.4</v>
       </c>
-      <c r="I31" s="26">
+      <c r="I31" s="24">
         <v>26.5</v>
       </c>
-      <c r="J31" s="27">
+      <c r="J31" s="25">
         <v>23.5</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="22">
         <v>0.79600000000000004</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="26">
+      <c r="D32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="24">
         <v>40.700000000000003</v>
       </c>
-      <c r="H32" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="27" t="s">
+      <c r="H32" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="26">
+      <c r="C33" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="24">
         <v>76.2</v>
       </c>
-      <c r="H33" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="27" t="s">
+      <c r="H33" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="17">
         <v>0.433</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="17">
         <v>0.84199999999999997</v>
       </c>
-      <c r="E34" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="20">
+      <c r="E34" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="19">
         <v>60.5</v>
       </c>
-      <c r="H34" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="21">
+      <c r="H34" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="20">
         <v>23.2</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="22">
         <v>0.51</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="22">
         <v>0.86</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="23">
         <v>0.54500000000000004</v>
       </c>
-      <c r="F35" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="26">
+      <c r="F35" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="24">
         <v>89.9</v>
       </c>
-      <c r="H35" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J35" s="27" t="s">
+      <c r="H35" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="22">
         <v>0.52900000000000003</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="22">
         <v>0.94799999999999995</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="23">
         <v>0.55600000000000005</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="24">
         <v>46.1</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="24">
         <v>80.599999999999994</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="24">
         <v>28.5</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I36" s="24">
         <v>30</v>
       </c>
-      <c r="J36" s="27">
+      <c r="J36" s="25">
         <v>35.200000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="22">
         <v>0.54400000000000004</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="22">
         <v>0.86299999999999999</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E37" s="23">
         <v>0.53500000000000003</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="24">
         <v>45.1</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="24">
         <v>54</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="24">
         <v>34.299999999999997</v>
       </c>
-      <c r="I37" s="26">
+      <c r="I37" s="24">
         <v>61.4</v>
       </c>
-      <c r="J37" s="27">
+      <c r="J37" s="25">
         <v>26.6</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="33">
         <v>0.56230769230768995</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="33">
         <v>0.90510000000000002</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="34">
         <v>0.48857142857142999</v>
       </c>
-      <c r="F38" s="37">
+      <c r="F38" s="35">
         <v>38.566666666666698</v>
       </c>
-      <c r="G38" s="37">
+      <c r="G38" s="35">
         <v>59.35</v>
       </c>
-      <c r="H38" s="37">
+      <c r="H38" s="35">
         <v>29.1</v>
       </c>
-      <c r="I38" s="37">
+      <c r="I38" s="35">
         <v>36.071428571428598</v>
       </c>
-      <c r="J38" s="38">
+      <c r="J38" s="36">
         <v>30.462499999999999</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="12">
         <v>0.748</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="12">
         <v>0.85799999999999998</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="13">
         <v>0.42899999999999999</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="15">
+      <c r="F39" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="14">
         <v>79.900000000000006</v>
       </c>
-      <c r="H39" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="15">
+      <c r="H39" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="14">
         <v>41.2</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J39" s="15">
         <v>61.3</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="22">
         <v>0.70699999999999996</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="22">
         <v>0.88200000000000001</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="23">
         <v>0.44900000000000001</v>
       </c>
-      <c r="F40" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="26">
+      <c r="F40" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="24">
         <v>78.599999999999994</v>
       </c>
-      <c r="H40" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="26">
+      <c r="H40" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="24">
         <v>64.599999999999994</v>
       </c>
-      <c r="J40" s="27" t="s">
+      <c r="J40" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="12">
         <v>0.72399999999999998</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="12">
         <v>0.97599999999999998</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="13">
         <v>0.252</v>
       </c>
-      <c r="F41" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="15">
+      <c r="F41" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="14">
         <v>40.799999999999997</v>
       </c>
-      <c r="H41" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" s="16" t="s">
+      <c r="H41" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <v>0.54600000000000004</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <v>0.86399999999999999</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="13">
         <v>0.63400000000000001</v>
       </c>
-      <c r="F42" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="15">
+      <c r="F42" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="14">
         <v>88.1</v>
       </c>
-      <c r="H42" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" s="16">
+      <c r="H42" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="15">
         <v>52.2</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="22">
         <v>0.68600000000000005</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="22">
         <v>0.83499999999999996</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="23">
         <v>0.45400000000000001</v>
       </c>
-      <c r="F43" s="26">
+      <c r="F43" s="24">
         <v>50.8</v>
       </c>
-      <c r="G43" s="26">
+      <c r="G43" s="24">
         <v>73.400000000000006</v>
       </c>
-      <c r="H43" s="26">
+      <c r="H43" s="24">
         <v>25.7</v>
       </c>
-      <c r="I43" s="26">
+      <c r="I43" s="24">
         <v>37.799999999999997</v>
       </c>
-      <c r="J43" s="27">
+      <c r="J43" s="25">
         <v>59.3</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="22">
         <v>0.74</v>
       </c>
-      <c r="D44" s="24">
+      <c r="D44" s="22">
         <v>0.9</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E44" s="23">
         <v>0.29599999999999999</v>
       </c>
-      <c r="F44" s="26">
+      <c r="F44" s="24">
         <v>47.6</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G44" s="24">
         <v>79.900000000000006</v>
       </c>
-      <c r="H44" s="26">
+      <c r="H44" s="24">
         <v>9.4</v>
       </c>
-      <c r="I44" s="26">
+      <c r="I44" s="24">
         <v>35</v>
       </c>
-      <c r="J44" s="27">
+      <c r="J44" s="25">
         <v>52.8</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="35">
+      <c r="C45" s="33">
         <v>0.69183333333332997</v>
       </c>
-      <c r="D45" s="35">
+      <c r="D45" s="33">
         <v>0.88583333333333003</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45" s="34">
         <v>0.41899999999999998</v>
       </c>
-      <c r="F45" s="37">
+      <c r="F45" s="35">
         <v>49.2</v>
       </c>
-      <c r="G45" s="37">
+      <c r="G45" s="35">
         <v>73.45</v>
       </c>
-      <c r="H45" s="37">
+      <c r="H45" s="35">
         <v>17.55</v>
       </c>
-      <c r="I45" s="37">
+      <c r="I45" s="35">
         <v>44.65</v>
       </c>
-      <c r="J45" s="38">
+      <c r="J45" s="36">
         <v>56.4</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="22">
         <v>0.54500000000000004</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="22">
         <v>0.85499999999999998</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E46" s="23">
         <v>0.61199999999999999</v>
       </c>
-      <c r="F46" s="26">
+      <c r="F46" s="24">
         <v>39.799999999999997</v>
       </c>
-      <c r="G46" s="26">
+      <c r="G46" s="24">
         <v>40.5</v>
       </c>
-      <c r="H46" s="26">
+      <c r="H46" s="24">
         <v>27.7</v>
       </c>
-      <c r="I46" s="26">
+      <c r="I46" s="24">
         <v>36.200000000000003</v>
       </c>
-      <c r="J46" s="27">
+      <c r="J46" s="25">
         <v>53.3</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="22">
         <v>0.45200000000000001</v>
       </c>
-      <c r="D47" s="24">
+      <c r="D47" s="22">
         <v>0.86699999999999999</v>
       </c>
-      <c r="E47" s="25">
+      <c r="E47" s="23">
         <v>0.59399999999999997</v>
       </c>
-      <c r="F47" s="26">
+      <c r="F47" s="24">
         <v>32.4</v>
       </c>
-      <c r="G47" s="26">
+      <c r="G47" s="24">
         <v>44.9</v>
       </c>
-      <c r="H47" s="26">
+      <c r="H47" s="24">
         <v>35.5</v>
       </c>
-      <c r="I47" s="26">
+      <c r="I47" s="24">
         <v>32.9</v>
       </c>
-      <c r="J47" s="27">
+      <c r="J47" s="25">
         <v>13.8</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="12">
         <v>0.66500000000000004</v>
       </c>
-      <c r="D48" s="24">
+      <c r="D48" s="12">
         <v>0.97399999999999998</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E48" s="13">
         <v>0.39700000000000002</v>
       </c>
-      <c r="F48" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="26">
+      <c r="F48" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="H48" s="26">
+      <c r="H48" s="14">
         <v>9.9</v>
       </c>
-      <c r="I48" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="27" t="s">
+      <c r="I48" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="22">
         <v>0.53800000000000003</v>
       </c>
-      <c r="D49" s="24">
+      <c r="D49" s="22">
         <v>0.81100000000000005</v>
       </c>
-      <c r="E49" s="25">
+      <c r="E49" s="23">
         <v>0.63800000000000001</v>
       </c>
-      <c r="F49" s="26">
+      <c r="F49" s="24">
         <v>42.8</v>
       </c>
-      <c r="G49" s="26">
+      <c r="G49" s="24">
         <v>29.7</v>
       </c>
-      <c r="H49" s="26">
+      <c r="H49" s="24">
         <v>35.6</v>
       </c>
-      <c r="I49" s="26">
+      <c r="I49" s="24">
         <v>76.099999999999994</v>
       </c>
-      <c r="J49" s="27">
+      <c r="J49" s="25">
         <v>20.399999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="22">
         <v>0.496</v>
       </c>
-      <c r="D50" s="24">
+      <c r="D50" s="22">
         <v>0.84599999999999997</v>
       </c>
-      <c r="E50" s="25">
+      <c r="E50" s="23">
         <v>0.61199999999999999</v>
       </c>
-      <c r="F50" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="26">
+      <c r="F50" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="24">
         <v>87.8</v>
       </c>
-      <c r="H50" s="26">
+      <c r="H50" s="24">
         <v>44.9</v>
       </c>
-      <c r="I50" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J50" s="27">
+      <c r="I50" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="25">
         <v>48.4</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="17">
         <v>0.61099999999999999</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="17">
         <v>0.91100000000000003</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="18">
         <v>0.53800000000000003</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F51" s="19">
         <v>34.5</v>
       </c>
-      <c r="G51" s="20">
+      <c r="G51" s="19">
         <v>59.5</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H51" s="19">
         <v>20.2</v>
       </c>
-      <c r="I51" s="20">
+      <c r="I51" s="19">
         <v>30.7</v>
       </c>
-      <c r="J51" s="21">
+      <c r="J51" s="20">
         <v>22.7</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="22">
         <v>0.47699999999999998</v>
       </c>
-      <c r="D52" s="24">
+      <c r="D52" s="22">
         <v>0.81699999999999995</v>
       </c>
-      <c r="E52" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="26">
+      <c r="E52" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="24">
         <v>56.7</v>
       </c>
-      <c r="G52" s="26">
+      <c r="G52" s="24">
         <v>87.7</v>
       </c>
-      <c r="H52" s="26">
+      <c r="H52" s="24">
         <v>56.9</v>
       </c>
-      <c r="I52" s="26">
+      <c r="I52" s="24">
         <v>28.2</v>
       </c>
-      <c r="J52" s="27">
+      <c r="J52" s="25">
         <v>44.4</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="24">
+      <c r="C53" s="22">
         <v>0.48</v>
       </c>
-      <c r="D53" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="26">
+      <c r="D53" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="24">
         <v>59.7</v>
       </c>
-      <c r="H53" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J53" s="27" t="s">
+      <c r="H53" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C54" s="22">
         <v>0.48</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D54" s="22">
         <v>0.89</v>
       </c>
-      <c r="E54" s="25">
+      <c r="E54" s="23">
         <v>0.65</v>
       </c>
-      <c r="F54" s="26">
+      <c r="F54" s="24">
         <v>47.5</v>
       </c>
-      <c r="G54" s="26">
+      <c r="G54" s="24">
         <v>60</v>
       </c>
-      <c r="H54" s="26">
+      <c r="H54" s="24">
         <v>33.5</v>
       </c>
-      <c r="I54" s="26">
+      <c r="I54" s="24">
         <v>41.5</v>
       </c>
-      <c r="J54" s="27">
+      <c r="J54" s="25">
         <v>52.8</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="22">
         <v>0.434</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="22">
         <v>0.82099999999999995</v>
       </c>
-      <c r="E55" s="25">
+      <c r="E55" s="23">
         <v>0.67100000000000004</v>
       </c>
-      <c r="F55" s="26">
+      <c r="F55" s="24">
         <v>46</v>
       </c>
-      <c r="G55" s="26">
+      <c r="G55" s="24">
         <v>63.5</v>
       </c>
-      <c r="H55" s="26">
+      <c r="H55" s="24">
         <v>48.4</v>
       </c>
-      <c r="I55" s="26">
+      <c r="I55" s="24">
         <v>39.9</v>
       </c>
-      <c r="J55" s="27">
+      <c r="J55" s="25">
         <v>28.9</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="24">
+      <c r="C56" s="22">
         <v>0.39400000000000002</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D56" s="22">
         <v>0.72399999999999998</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E56" s="23">
         <v>0.64200000000000002</v>
       </c>
-      <c r="F56" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="26">
+      <c r="F56" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="24">
         <v>84.4</v>
       </c>
-      <c r="H56" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J56" s="27">
+      <c r="H56" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="25">
         <v>25.6</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="12">
         <v>0.53900000000000003</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="12">
         <v>0.88100000000000001</v>
       </c>
-      <c r="E57" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="15">
+      <c r="E57" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="14">
         <v>46</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="14">
         <v>54.8</v>
       </c>
-      <c r="H57" s="15">
+      <c r="H57" s="14">
         <v>32</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I57" s="14">
         <v>41.4</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J57" s="15">
         <v>53.9</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="24">
+      <c r="C58" s="22">
         <v>0.51200000000000001</v>
       </c>
-      <c r="D58" s="24">
+      <c r="D58" s="22">
         <v>0.87</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E58" s="23">
         <v>0.53300000000000003</v>
       </c>
-      <c r="F58" s="26">
+      <c r="F58" s="24">
         <v>37</v>
       </c>
-      <c r="G58" s="26">
+      <c r="G58" s="24">
         <v>64.900000000000006</v>
       </c>
-      <c r="H58" s="26">
+      <c r="H58" s="24">
         <v>41.9</v>
       </c>
-      <c r="I58" s="26">
+      <c r="I58" s="24">
         <v>27.6</v>
       </c>
-      <c r="J58" s="27">
+      <c r="J58" s="25">
         <v>3.6</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="22">
         <v>0.45200000000000001</v>
       </c>
-      <c r="D59" s="24">
+      <c r="D59" s="22">
         <v>0.88400000000000001</v>
       </c>
-      <c r="E59" s="25">
+      <c r="E59" s="23">
         <v>0.64400000000000002</v>
       </c>
-      <c r="F59" s="26">
+      <c r="F59" s="24">
         <v>47.6</v>
       </c>
-      <c r="G59" s="26">
+      <c r="G59" s="24">
         <v>53.7</v>
       </c>
-      <c r="H59" s="26">
+      <c r="H59" s="24">
         <v>50.4</v>
       </c>
-      <c r="I59" s="26">
+      <c r="I59" s="24">
         <v>44.8</v>
       </c>
-      <c r="J59" s="27">
+      <c r="J59" s="25">
         <v>40.9</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C60" s="17">
         <v>0.51500000000000001</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="17">
         <v>0.82199999999999995</v>
       </c>
-      <c r="E60" s="19">
+      <c r="E60" s="18">
         <v>0.57299999999999995</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="19">
         <v>49.5</v>
       </c>
-      <c r="G60" s="20">
+      <c r="G60" s="19">
         <v>63.1</v>
       </c>
-      <c r="H60" s="20">
+      <c r="H60" s="19">
         <v>24.7</v>
       </c>
-      <c r="I60" s="20">
+      <c r="I60" s="19">
         <v>43.5</v>
       </c>
-      <c r="J60" s="21">
+      <c r="J60" s="20">
         <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="33" t="s">
+      <c r="A61" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="35">
+      <c r="C61" s="33">
         <v>0.50600000000000001</v>
       </c>
-      <c r="D61" s="35">
+      <c r="D61" s="33">
         <v>0.85521428571429003</v>
       </c>
-      <c r="E61" s="36">
+      <c r="E61" s="34">
         <v>0.59199999999999997</v>
       </c>
-      <c r="F61" s="37">
+      <c r="F61" s="35">
         <v>43.618181818181803</v>
       </c>
-      <c r="G61" s="37">
+      <c r="G61" s="35">
         <v>59.4</v>
       </c>
-      <c r="H61" s="37">
+      <c r="H61" s="35">
         <v>35.507692307692302</v>
       </c>
-      <c r="I61" s="37">
+      <c r="I61" s="35">
         <v>40.2545454545455</v>
       </c>
-      <c r="J61" s="38">
+      <c r="J61" s="36">
         <v>36.207692307692298</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="41" t="s">
+      <c r="A62" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="43">
+      <c r="C62" s="41">
         <v>0.56073584905660001</v>
       </c>
-      <c r="D62" s="43">
+      <c r="D62" s="41">
         <v>0.89695833333332997</v>
       </c>
-      <c r="E62" s="44">
+      <c r="E62" s="42">
         <v>0.53167441860465003</v>
       </c>
-      <c r="F62" s="45">
+      <c r="F62" s="43">
         <v>40.332258064516097</v>
       </c>
-      <c r="G62" s="45">
+      <c r="G62" s="43">
         <v>55.949056603773599</v>
       </c>
-      <c r="H62" s="45">
+      <c r="H62" s="43">
         <v>28.947368421052602</v>
       </c>
-      <c r="I62" s="45">
+      <c r="I62" s="43">
         <v>39.482857142857199</v>
       </c>
-      <c r="J62" s="46">
+      <c r="J62" s="44">
         <v>38.076923076923102</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="41" t="s">
+      <c r="A63" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="43">
+      <c r="C63" s="41">
         <v>0.78479104477612005</v>
       </c>
-      <c r="D63" s="43">
+      <c r="D63" s="41">
         <v>0.95656410256409996</v>
       </c>
-      <c r="E63" s="44">
+      <c r="E63" s="42">
         <v>0.27639495798319003</v>
       </c>
-      <c r="F63" s="45">
+      <c r="F63" s="43">
         <v>25.784090909090899</v>
       </c>
-      <c r="G63" s="45">
+      <c r="G63" s="43">
         <v>38.530327868852503</v>
       </c>
-      <c r="H63" s="45">
+      <c r="H63" s="43">
         <v>19.038709677419401</v>
       </c>
-      <c r="I63" s="45">
+      <c r="I63" s="43">
         <v>22.842268041237102</v>
       </c>
-      <c r="J63" s="46">
+      <c r="J63" s="44">
         <v>24.610416666666701</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="48" t="s">
+      <c r="B64" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="49">
+      <c r="C64" s="47">
         <v>0.74818181818181995</v>
       </c>
-      <c r="D64" s="49">
+      <c r="D64" s="47">
         <v>0.97710714285713995</v>
       </c>
-      <c r="E64" s="50">
+      <c r="E64" s="48">
         <v>0.39182142857142999</v>
       </c>
-      <c r="F64" s="51">
+      <c r="F64" s="49">
         <v>25.433333333333302</v>
       </c>
-      <c r="G64" s="51">
+      <c r="G64" s="49">
         <v>31.1620689655172</v>
       </c>
-      <c r="H64" s="51">
+      <c r="H64" s="49">
         <v>21.816666666666698</v>
       </c>
-      <c r="I64" s="51">
+      <c r="I64" s="49">
         <v>22.871428571428599</v>
       </c>
-      <c r="J64" s="52">
+      <c r="J64" s="50">
         <v>20.1619047619048</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B65" s="53" t="s">
+      <c r="B65" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="54">
+      <c r="C65" s="52">
         <v>0.67279310344828003</v>
       </c>
-      <c r="D65" s="54">
+      <c r="D65" s="52">
         <v>0.89121428571428996</v>
       </c>
-      <c r="E65" s="55">
+      <c r="E65" s="53">
         <v>0.43425925925926001</v>
       </c>
-      <c r="F65" s="56">
+      <c r="F65" s="54">
         <v>42.757142857142902</v>
       </c>
-      <c r="G65" s="56">
+      <c r="G65" s="54">
         <v>57.262068965517301</v>
       </c>
-      <c r="H65" s="56">
+      <c r="H65" s="54">
         <v>25.908333333333299</v>
       </c>
-      <c r="I65" s="56">
+      <c r="I65" s="54">
         <v>37.671428571428599</v>
       </c>
-      <c r="J65" s="57">
+      <c r="J65" s="55">
         <v>42.122727272727303</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="47" t="s">
+      <c r="A66" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="58" t="s">
+      <c r="B66" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="59">
+      <c r="C66" s="57">
         <v>0.72128877005348002</v>
       </c>
-      <c r="D66" s="59">
+      <c r="D66" s="57">
         <v>0.93922424242423996</v>
       </c>
-      <c r="E66" s="60">
+      <c r="E66" s="58">
         <v>0.34415432098764998</v>
       </c>
-      <c r="F66" s="61">
+      <c r="F66" s="59">
         <v>29.573949579831901</v>
       </c>
-      <c r="G66" s="61">
+      <c r="G66" s="59">
         <v>43.805714285714302</v>
       </c>
-      <c r="H66" s="61">
+      <c r="H66" s="59">
         <v>21.912977099236699</v>
       </c>
-      <c r="I66" s="61">
+      <c r="I66" s="59">
         <v>27.2545454545455</v>
       </c>
-      <c r="J66" s="62">
+      <c r="J66" s="60">
         <v>28.500740740740699</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67" s="47" t="s">
+      <c r="A67" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="53" t="s">
+      <c r="B67" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="54">
+      <c r="C67" s="52">
         <v>0.58404999999999996</v>
       </c>
-      <c r="D67" s="54">
+      <c r="D67" s="52">
         <v>0.92552941176471004</v>
       </c>
-      <c r="E67" s="55">
+      <c r="E67" s="53">
         <v>0.47866666666667002</v>
       </c>
-      <c r="F67" s="56">
+      <c r="F67" s="54">
         <v>38.1</v>
       </c>
-      <c r="G67" s="56">
+      <c r="G67" s="54">
         <v>56.164999999999999</v>
       </c>
-      <c r="H67" s="56">
+      <c r="H67" s="54">
         <v>26.9583333333333</v>
       </c>
-      <c r="I67" s="56">
+      <c r="I67" s="54">
         <v>39.033333333333303</v>
       </c>
-      <c r="J67" s="57">
+      <c r="J67" s="55">
         <v>35.763636363636401</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B68" s="53" t="s">
+      <c r="B68" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="54">
+      <c r="C68" s="52">
         <v>0.52875000000000005</v>
       </c>
-      <c r="D68" s="54">
+      <c r="D68" s="52">
         <v>0.85152380952381002</v>
       </c>
-      <c r="E68" s="55">
+      <c r="E68" s="53">
         <v>0.55983333333332996</v>
       </c>
-      <c r="F68" s="56">
+      <c r="F68" s="54">
         <v>44.25</v>
       </c>
-      <c r="G68" s="56">
+      <c r="G68" s="54">
         <v>65.164000000000001</v>
       </c>
-      <c r="H68" s="56">
+      <c r="H68" s="54">
         <v>33.637500000000003</v>
       </c>
-      <c r="I68" s="56">
+      <c r="I68" s="54">
         <v>42.38</v>
       </c>
-      <c r="J68" s="57">
+      <c r="J68" s="55">
         <v>39.035294117647098</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69" s="47" t="s">
+      <c r="A69" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B69" s="53" t="s">
+      <c r="B69" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="54">
+      <c r="C69" s="52">
         <v>0.51383333333333003</v>
       </c>
-      <c r="D69" s="54">
+      <c r="D69" s="52">
         <v>0.92233333333333001</v>
       </c>
-      <c r="E69" s="55">
+      <c r="E69" s="53">
         <v>0.503</v>
       </c>
-      <c r="F69" s="56">
+      <c r="F69" s="54">
         <v>38.575000000000003</v>
       </c>
-      <c r="G69" s="56">
+      <c r="G69" s="54">
         <v>56.72</v>
       </c>
-      <c r="H69" s="56">
+      <c r="H69" s="54">
         <v>29</v>
       </c>
-      <c r="I69" s="56">
+      <c r="I69" s="54">
         <v>40.024999999999999</v>
       </c>
-      <c r="J69" s="57">
+      <c r="J69" s="55">
         <v>25.14</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70" s="47" t="s">
+      <c r="A70" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B70" s="53" t="s">
+      <c r="B70" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="54">
+      <c r="C70" s="52">
         <v>0.53536363636364004</v>
       </c>
-      <c r="D70" s="54">
+      <c r="D70" s="52">
         <v>0.88719999999999999</v>
       </c>
-      <c r="E70" s="55">
+      <c r="E70" s="53">
         <v>0.56410000000000005</v>
       </c>
-      <c r="F70" s="56">
+      <c r="F70" s="54">
         <v>41.3</v>
       </c>
-      <c r="G70" s="56">
+      <c r="G70" s="54">
         <v>47.51</v>
       </c>
-      <c r="H70" s="56">
+      <c r="H70" s="54">
         <v>27.9</v>
       </c>
-      <c r="I70" s="56">
+      <c r="I70" s="54">
         <v>48.85</v>
       </c>
-      <c r="J70" s="57">
+      <c r="J70" s="55">
         <v>36.414285714285697</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71" s="47" t="s">
+      <c r="A71" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="53" t="s">
+      <c r="B71" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="54">
+      <c r="C71" s="52">
         <v>0.50600000000000001</v>
       </c>
-      <c r="D71" s="54">
+      <c r="D71" s="52">
         <v>0.85521428571429003</v>
       </c>
-      <c r="E71" s="55">
+      <c r="E71" s="53">
         <v>0.59199999999999997</v>
       </c>
-      <c r="F71" s="56">
+      <c r="F71" s="54">
         <v>43.618181818181803</v>
       </c>
-      <c r="G71" s="56">
+      <c r="G71" s="54">
         <v>59.4</v>
       </c>
-      <c r="H71" s="56">
+      <c r="H71" s="54">
         <v>35.507692307692302</v>
       </c>
-      <c r="I71" s="56">
+      <c r="I71" s="54">
         <v>40.2545454545455</v>
       </c>
-      <c r="J71" s="57">
+      <c r="J71" s="55">
         <v>36.207692307692298</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72" s="47" t="s">
+      <c r="A72" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B72" s="53" t="s">
+      <c r="B72" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="54">
+      <c r="C72" s="52">
         <v>0.50800000000000001</v>
       </c>
-      <c r="D72" s="54">
+      <c r="D72" s="52">
         <v>0.86780000000000002</v>
       </c>
-      <c r="E72" s="55">
+      <c r="E72" s="53">
         <v>0.52875000000000005</v>
       </c>
-      <c r="F72" s="56">
+      <c r="F72" s="54">
         <v>36.733333333333299</v>
       </c>
-      <c r="G72" s="56">
+      <c r="G72" s="54">
         <v>60.1</v>
       </c>
-      <c r="H72" s="56">
+      <c r="H72" s="54">
         <v>31.3333333333333</v>
       </c>
-      <c r="I72" s="56">
+      <c r="I72" s="54">
         <v>45.866666666666703</v>
       </c>
-      <c r="J72" s="57">
+      <c r="J72" s="55">
         <v>21.225000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73" s="47" t="s">
+      <c r="A73" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="54">
+      <c r="C73" s="52">
         <v>0.59962499999999996</v>
       </c>
-      <c r="D73" s="54">
+      <c r="D73" s="52">
         <v>0.95353333333333001</v>
       </c>
-      <c r="E73" s="55">
+      <c r="E73" s="53">
         <v>0.51084615384614995</v>
       </c>
-      <c r="F73" s="56">
+      <c r="F73" s="54">
         <v>35.36</v>
       </c>
-      <c r="G73" s="56">
+      <c r="G73" s="54">
         <v>48.618749999999999</v>
       </c>
-      <c r="H73" s="56">
+      <c r="H73" s="54">
         <v>23.7</v>
       </c>
-      <c r="I73" s="56">
+      <c r="I73" s="54">
         <v>31.35</v>
       </c>
-      <c r="J73" s="57">
+      <c r="J73" s="55">
         <v>39.133333333333297</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74" s="47" t="s">
+      <c r="A74" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="53" t="s">
+      <c r="B74" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="54">
+      <c r="C74" s="52">
         <v>0.68879999999999997</v>
       </c>
-      <c r="D74" s="54">
+      <c r="D74" s="52">
         <v>0.88660000000000005</v>
       </c>
-      <c r="E74" s="55">
+      <c r="E74" s="53">
         <v>0.41299999999999998</v>
       </c>
-      <c r="F74" s="56">
+      <c r="F74" s="54">
         <v>49.2</v>
       </c>
-      <c r="G74" s="56">
+      <c r="G74" s="54">
         <v>72.42</v>
       </c>
-      <c r="H74" s="56">
+      <c r="H74" s="54">
         <v>17.55</v>
       </c>
-      <c r="I74" s="56">
+      <c r="I74" s="54">
         <v>38</v>
       </c>
-      <c r="J74" s="57">
+      <c r="J74" s="55">
         <v>56.4</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="47" t="s">
+      <c r="A75" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="C75" s="59">
+      <c r="C75" s="57">
         <v>0.5665</v>
       </c>
-      <c r="D75" s="59">
+      <c r="D75" s="57">
         <v>0.92374999999999996</v>
       </c>
-      <c r="E75" s="60">
+      <c r="E75" s="58">
         <v>0.49825000000000003</v>
       </c>
-      <c r="F75" s="61">
+      <c r="F75" s="59">
         <v>24.3</v>
       </c>
-      <c r="G75" s="61">
+      <c r="G75" s="59">
         <v>42.6666666666667</v>
       </c>
-      <c r="H75" s="61">
+      <c r="H75" s="59">
         <v>19.14</v>
       </c>
-      <c r="I75" s="61">
+      <c r="I75" s="59">
         <v>15.3</v>
       </c>
-      <c r="J75" s="62">
+      <c r="J75" s="60">
         <v>32.9</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A76" s="47" t="s">
+      <c r="A76" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="53" t="s">
+      <c r="B76" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="54">
+      <c r="C76" s="52">
         <v>0.72929999999999995</v>
       </c>
-      <c r="D76" s="54">
+      <c r="D76" s="52">
         <v>0.96930000000000005</v>
       </c>
-      <c r="E76" s="55">
+      <c r="E76" s="53">
         <v>0.35489999999999999</v>
       </c>
-      <c r="F76" s="56">
+      <c r="F76" s="54">
         <v>35.037500000000001</v>
       </c>
-      <c r="G76" s="56">
+      <c r="G76" s="54">
         <v>48.83</v>
       </c>
-      <c r="H76" s="56">
+      <c r="H76" s="54">
         <v>22.85</v>
       </c>
-      <c r="I76" s="56">
+      <c r="I76" s="54">
         <v>32.049999999999997</v>
       </c>
-      <c r="J76" s="57">
+      <c r="J76" s="55">
         <v>41.262500000000003</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77" s="47" t="s">
+      <c r="A77" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B77" s="53" t="s">
+      <c r="B77" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="54">
+      <c r="C77" s="52">
         <v>0.76316666666666999</v>
       </c>
-      <c r="D77" s="54">
+      <c r="D77" s="52">
         <v>0.97866666666667002</v>
       </c>
-      <c r="E77" s="55">
+      <c r="E77" s="53">
         <v>0.39316666666666999</v>
       </c>
-      <c r="F77" s="56">
+      <c r="F77" s="54">
         <v>25.262499999999999</v>
       </c>
-      <c r="G77" s="56">
+      <c r="G77" s="54">
         <v>31.554545454545501</v>
       </c>
-      <c r="H77" s="56">
+      <c r="H77" s="54">
         <v>17.912500000000001</v>
       </c>
-      <c r="I77" s="56">
+      <c r="I77" s="54">
         <v>26.77</v>
       </c>
-      <c r="J77" s="57">
+      <c r="J77" s="55">
         <v>17.61</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="C78" s="54">
+      <c r="C78" s="52">
         <v>0.89685185185185001</v>
       </c>
-      <c r="D78" s="54">
+      <c r="D78" s="52">
         <v>0.98707407407407</v>
       </c>
-      <c r="E78" s="55">
+      <c r="E78" s="53">
         <v>0.10677777777778</v>
       </c>
-      <c r="F78" s="56">
+      <c r="F78" s="54">
         <v>16.669230769230801</v>
       </c>
-      <c r="G78" s="56">
+      <c r="G78" s="54">
         <v>24.9185185185185</v>
       </c>
-      <c r="H78" s="56">
+      <c r="H78" s="54">
         <v>11.9884615384615</v>
       </c>
-      <c r="I78" s="56">
+      <c r="I78" s="54">
         <v>10.7</v>
       </c>
-      <c r="J78" s="57">
+      <c r="J78" s="55">
         <v>17.3037037037037</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="47" t="s">
+      <c r="A79" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B79" s="58" t="s">
+      <c r="B79" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="C79" s="59">
+      <c r="C79" s="57">
         <v>0.90110526315788997</v>
       </c>
-      <c r="D79" s="59">
+      <c r="D79" s="57">
         <v>0.98028947368421004</v>
       </c>
-      <c r="E79" s="60">
+      <c r="E79" s="58">
         <v>0.12189473684211</v>
       </c>
-      <c r="F79" s="61">
+      <c r="F79" s="59">
         <v>17.54</v>
       </c>
-      <c r="G79" s="61">
+      <c r="G79" s="59">
         <v>25.678947368421099</v>
       </c>
-      <c r="H79" s="61">
+      <c r="H79" s="59">
         <v>12.911428571428599</v>
       </c>
-      <c r="I79" s="61">
+      <c r="I79" s="59">
         <v>13.821621621621601</v>
       </c>
-      <c r="J79" s="62">
+      <c r="J79" s="60">
         <v>17.1605263157895</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80" s="47" t="s">
+      <c r="A80" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B80" s="53" t="s">
+      <c r="B80" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="54">
-        <v>0.60055555555555995</v>
-      </c>
-      <c r="D80" s="54">
-        <v>0.88637500000000002</v>
-      </c>
-      <c r="E80" s="55">
-        <v>0.52228571428571002</v>
-      </c>
-      <c r="F80" s="56">
+      <c r="C80" s="52">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="D80" s="52">
+        <v>0.89611111111110997</v>
+      </c>
+      <c r="E80" s="53">
+        <v>0.50662499999999999</v>
+      </c>
+      <c r="F80" s="54">
         <v>43.8333333333333</v>
       </c>
-      <c r="G80" s="56">
-        <v>58.2</v>
-      </c>
-      <c r="H80" s="56">
-        <v>31.6</v>
-      </c>
-      <c r="I80" s="56">
+      <c r="G80" s="54">
+        <v>56.06</v>
+      </c>
+      <c r="H80" s="54">
+        <v>27.983333333333299</v>
+      </c>
+      <c r="I80" s="54">
         <v>47.5</v>
       </c>
-      <c r="J80" s="57">
+      <c r="J80" s="55">
         <v>46.4166666666667</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81" s="47" t="s">
+      <c r="A81" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B81" s="53" t="s">
+      <c r="B81" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="54">
-        <v>0.75814999999999999</v>
-      </c>
-      <c r="D81" s="54">
-        <v>0.93068421052632</v>
-      </c>
-      <c r="E81" s="55">
-        <v>0.34</v>
-      </c>
-      <c r="F81" s="56">
+      <c r="C81" s="52">
+        <v>0.75318181818181995</v>
+      </c>
+      <c r="D81" s="52">
+        <v>0.93025000000000002</v>
+      </c>
+      <c r="E81" s="53">
+        <v>0.35285</v>
+      </c>
+      <c r="F81" s="54">
         <v>35.766666666666701</v>
       </c>
-      <c r="G81" s="56">
-        <v>56.715789473684197</v>
-      </c>
-      <c r="H81" s="56">
+      <c r="G81" s="54">
+        <v>58.280952380952399</v>
+      </c>
+      <c r="H81" s="54">
         <v>26.18</v>
       </c>
-      <c r="I81" s="56">
+      <c r="I81" s="54">
         <v>31.8</v>
       </c>
-      <c r="J81" s="57">
+      <c r="J81" s="55">
         <v>34.700000000000003</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B82" s="53" t="s">
+      <c r="B82" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="54">
-        <v>0.55259090909091002</v>
-      </c>
-      <c r="D82" s="54">
-        <v>0.89907499999999996</v>
-      </c>
-      <c r="E82" s="55">
-        <v>0.53349999999999997</v>
-      </c>
-      <c r="F82" s="56">
+      <c r="C82" s="52">
+        <v>0.54997674418605003</v>
+      </c>
+      <c r="D82" s="52">
+        <v>0.89715384615384997</v>
+      </c>
+      <c r="E82" s="53">
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="F82" s="54">
         <v>39.957142857142898</v>
       </c>
-      <c r="G82" s="56">
-        <v>55.488636363636402</v>
-      </c>
-      <c r="H82" s="56">
-        <v>28.5454545454546</v>
-      </c>
-      <c r="I82" s="56">
+      <c r="G82" s="54">
+        <v>55.923255813953503</v>
+      </c>
+      <c r="H82" s="54">
+        <v>29.128125000000001</v>
+      </c>
+      <c r="I82" s="54">
         <v>38.448387096774198</v>
       </c>
-      <c r="J82" s="57">
+      <c r="J82" s="55">
         <v>36.560606060606098</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="47" t="s">
+      <c r="A83" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B83" s="58" t="s">
+      <c r="B83" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="59">
-        <v>0.78946491228070004</v>
-      </c>
-      <c r="D83" s="59">
-        <v>0.96158163265305996</v>
-      </c>
-      <c r="E83" s="60">
-        <v>0.26505940594059002</v>
-      </c>
-      <c r="F83" s="61">
+      <c r="C83" s="57">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="D83" s="57">
+        <v>0.96198969072164997</v>
+      </c>
+      <c r="E83" s="58">
+        <v>0.26094949494948999</v>
+      </c>
+      <c r="F83" s="59">
         <v>24.646835443038</v>
       </c>
-      <c r="G83" s="61">
-        <v>35.175728155339797</v>
-      </c>
-      <c r="H83" s="61">
+      <c r="G83" s="59">
+        <v>34.423762376237597</v>
+      </c>
+      <c r="H83" s="59">
         <v>18.178313253012</v>
       </c>
-      <c r="I83" s="61">
+      <c r="I83" s="59">
         <v>21.4559523809524</v>
       </c>
-      <c r="J83" s="62">
+      <c r="J83" s="60">
         <v>23.304705882352899</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="47" t="s">
+      <c r="A84" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="53" t="s">
+      <c r="B84" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="C84" s="54">
+      <c r="C84" s="52">
         <v>0.46949999999999997</v>
       </c>
-      <c r="D84" s="54">
+      <c r="D84" s="52">
         <v>0.86385000000000001</v>
       </c>
-      <c r="E84" s="55">
+      <c r="E84" s="53">
         <v>0.58729411764705997</v>
       </c>
-      <c r="F84" s="56">
+      <c r="F84" s="54">
         <v>41.566666666666698</v>
       </c>
-      <c r="G84" s="56">
+      <c r="G84" s="54">
         <v>58.777272727272702</v>
       </c>
-      <c r="H84" s="56">
+      <c r="H84" s="54">
         <v>33.864705882353</v>
       </c>
-      <c r="I84" s="56">
+      <c r="I84" s="54">
         <v>39.200000000000003</v>
       </c>
-      <c r="J84" s="57">
+      <c r="J84" s="55">
         <v>36.905555555555601</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B85" s="53" t="s">
+      <c r="B85" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="C85" s="54">
+      <c r="C85" s="52">
         <v>0.51600000000000001</v>
       </c>
-      <c r="D85" s="54">
+      <c r="D85" s="52">
         <v>0.65900000000000003</v>
       </c>
-      <c r="E85" s="55">
+      <c r="E85" s="53">
         <v>0.64400000000000002</v>
       </c>
-      <c r="F85" s="56">
+      <c r="F85" s="54">
         <v>58.4</v>
       </c>
-      <c r="G85" s="56">
+      <c r="G85" s="54">
         <v>85.7</v>
       </c>
-      <c r="H85" s="56">
+      <c r="H85" s="54">
         <v>38.75</v>
       </c>
-      <c r="I85" s="56">
+      <c r="I85" s="54">
         <v>44.4</v>
       </c>
-      <c r="J85" s="57">
+      <c r="J85" s="55">
         <v>56.95</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A86" s="47" t="s">
+      <c r="A86" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B86" s="53" t="s">
+      <c r="B86" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="54">
+      <c r="C86" s="52">
         <v>0.59482608695651995</v>
       </c>
-      <c r="D86" s="54">
+      <c r="D86" s="52">
         <v>0.90536363636364003</v>
       </c>
-      <c r="E86" s="55">
+      <c r="E86" s="53">
         <v>0.52215</v>
       </c>
-      <c r="F86" s="56">
+      <c r="F86" s="54">
         <v>41.323076923076897</v>
       </c>
-      <c r="G86" s="56">
+      <c r="G86" s="54">
         <v>57.291304347826099</v>
       </c>
-      <c r="H86" s="56">
+      <c r="H86" s="54">
         <v>24.8117647058824</v>
       </c>
-      <c r="I86" s="56">
+      <c r="I86" s="54">
         <v>42.9</v>
       </c>
-      <c r="J86" s="57">
+      <c r="J86" s="55">
         <v>40.368749999999999</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" s="47" t="s">
+      <c r="A87" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B87" s="53" t="s">
+      <c r="B87" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="54">
+      <c r="C87" s="52">
         <v>0.65803225806452004</v>
       </c>
-      <c r="D87" s="54">
+      <c r="D87" s="52">
         <v>0.93344000000000005</v>
       </c>
-      <c r="E87" s="55">
+      <c r="E87" s="53">
         <v>0.43180769230769001</v>
       </c>
-      <c r="F87" s="56">
+      <c r="F87" s="54">
         <v>34.504761904761899</v>
       </c>
-      <c r="G87" s="56">
+      <c r="G87" s="54">
         <v>44.303571428571402</v>
       </c>
-      <c r="H87" s="56">
+      <c r="H87" s="54">
         <v>25.164000000000001</v>
       </c>
-      <c r="I87" s="56">
+      <c r="I87" s="54">
         <v>32.485714285714302</v>
       </c>
-      <c r="J87" s="57">
+      <c r="J87" s="55">
         <v>32.686363636363602</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A88" s="47" t="s">
+      <c r="A88" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B88" s="53" t="s">
+      <c r="B88" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="C88" s="54">
+      <c r="C88" s="52">
         <v>0.70185714285713996</v>
       </c>
-      <c r="D88" s="54">
+      <c r="D88" s="52">
         <v>0.97650000000000003</v>
       </c>
-      <c r="E88" s="55">
+      <c r="E88" s="53">
         <v>0.40583333333332999</v>
       </c>
-      <c r="F88" s="56">
+      <c r="F88" s="54">
         <v>29.866666666666699</v>
       </c>
-      <c r="G88" s="56">
+      <c r="G88" s="54">
         <v>44.828571428571401</v>
       </c>
-      <c r="H88" s="56">
+      <c r="H88" s="54">
         <v>25.625</v>
       </c>
-      <c r="I88" s="56">
+      <c r="I88" s="54">
         <v>30.08</v>
       </c>
-      <c r="J88" s="57">
+      <c r="J88" s="55">
         <v>34.96</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89" s="47" t="s">
+      <c r="A89" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B89" s="53" t="s">
+      <c r="B89" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="C89" s="54">
+      <c r="C89" s="52">
         <v>0.76788888888888995</v>
       </c>
-      <c r="D89" s="54">
+      <c r="D89" s="52">
         <v>0.96432499999999999</v>
       </c>
-      <c r="E89" s="55">
+      <c r="E89" s="53">
         <v>0.31969999999999998</v>
       </c>
-      <c r="F89" s="56">
+      <c r="F89" s="54">
         <v>27.4607142857143</v>
       </c>
-      <c r="G89" s="56">
+      <c r="G89" s="54">
         <v>37.555</v>
       </c>
-      <c r="H89" s="56">
+      <c r="H89" s="54">
         <v>19.851724137931001</v>
       </c>
-      <c r="I89" s="56">
+      <c r="I89" s="54">
         <v>24.354838709677399</v>
       </c>
-      <c r="J89" s="57">
+      <c r="J89" s="55">
         <v>24.103225806451601</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="47" t="s">
+      <c r="A90" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B90" s="58" t="s">
+      <c r="B90" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="C90" s="59">
+      <c r="C90" s="57">
         <v>0.88627272727272999</v>
       </c>
-      <c r="D90" s="59">
+      <c r="D90" s="57">
         <v>0.97964583333333</v>
       </c>
-      <c r="E90" s="60">
+      <c r="E90" s="58">
         <v>0.1319387755102</v>
       </c>
-      <c r="F90" s="61">
+      <c r="F90" s="59">
         <v>17.8027027027027</v>
       </c>
-      <c r="G90" s="61">
-        <v>33.296078431372599</v>
-      </c>
-      <c r="H90" s="61">
+      <c r="G90" s="59">
+        <v>33.2960784313725</v>
+      </c>
+      <c r="H90" s="59">
         <v>13.1972972972973</v>
       </c>
-      <c r="I90" s="61">
+      <c r="I90" s="59">
         <v>16.119047619047599</v>
       </c>
-      <c r="J90" s="62">
+      <c r="J90" s="60">
         <v>19.195</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" s="47" t="s">
+      <c r="A91" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="53" t="s">
+      <c r="B91" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="C91" s="54">
+      <c r="C91" s="52">
         <v>0.4955</v>
       </c>
-      <c r="D91" s="54">
+      <c r="D91" s="52">
         <v>0.87882758620690005</v>
       </c>
-      <c r="E91" s="55">
+      <c r="E91" s="53">
         <v>0.57935999999999999</v>
       </c>
-      <c r="F91" s="56">
+      <c r="F91" s="54">
         <v>40.965000000000003</v>
       </c>
-      <c r="G91" s="56">
+      <c r="G91" s="54">
         <v>58.493749999999999</v>
       </c>
-      <c r="H91" s="56">
+      <c r="H91" s="54">
         <v>31.571999999999999</v>
       </c>
-      <c r="I91" s="56">
+      <c r="I91" s="54">
         <v>37.524999999999999</v>
       </c>
-      <c r="J91" s="57">
+      <c r="J91" s="55">
         <v>37</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" s="47" t="s">
+      <c r="A92" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B92" s="53" t="s">
+      <c r="B92" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="54">
+      <c r="C92" s="52">
         <v>0.58099999999999996</v>
       </c>
-      <c r="D92" s="54">
+      <c r="D92" s="52">
         <v>0.85260000000000002</v>
       </c>
-      <c r="E92" s="55">
+      <c r="E92" s="53">
         <v>0.54522222222222005</v>
       </c>
-      <c r="F92" s="56">
+      <c r="F92" s="54">
         <v>43.225000000000001</v>
       </c>
-      <c r="G92" s="56">
+      <c r="G92" s="54">
         <v>52.681818181818201</v>
       </c>
-      <c r="H92" s="56">
+      <c r="H92" s="54">
         <v>28.990909090909099</v>
       </c>
-      <c r="I92" s="56">
+      <c r="I92" s="54">
         <v>35.112499999999997</v>
       </c>
-      <c r="J92" s="57">
+      <c r="J92" s="55">
         <v>48.1875</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" s="47" t="s">
+      <c r="A93" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="53" t="s">
+      <c r="B93" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="C93" s="54">
+      <c r="C93" s="52">
         <v>0.65400000000000003</v>
       </c>
-      <c r="D93" s="54">
+      <c r="D93" s="52">
         <v>0.93674999999999997</v>
       </c>
-      <c r="E93" s="55">
+      <c r="E93" s="53">
         <v>0.42699999999999999</v>
       </c>
-      <c r="F93" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" s="56">
+      <c r="F93" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="54">
         <v>47.866666666666703</v>
       </c>
-      <c r="H93" s="56">
+      <c r="H93" s="54">
         <v>17.3</v>
       </c>
-      <c r="I93" s="56">
+      <c r="I93" s="54">
         <v>19.2</v>
       </c>
-      <c r="J93" s="57">
+      <c r="J93" s="55">
         <v>40.700000000000003</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A94" s="47" t="s">
+      <c r="A94" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B94" s="53" t="s">
+      <c r="B94" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="54">
+      <c r="C94" s="52">
         <v>0.72493333333332999</v>
       </c>
-      <c r="D94" s="54">
+      <c r="D94" s="52">
         <v>0.96356249999999999</v>
       </c>
-      <c r="E94" s="55">
+      <c r="E94" s="53">
         <v>0.38200000000000001</v>
       </c>
-      <c r="F94" s="56">
+      <c r="F94" s="54">
         <v>26.66</v>
       </c>
-      <c r="G94" s="56">
+      <c r="G94" s="54">
         <v>37.865000000000002</v>
       </c>
-      <c r="H94" s="56">
+      <c r="H94" s="54">
         <v>28.7444444444445</v>
       </c>
-      <c r="I94" s="56">
+      <c r="I94" s="54">
         <v>16.98</v>
       </c>
-      <c r="J94" s="57">
+      <c r="J94" s="55">
         <v>34.18</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" s="47" t="s">
+      <c r="A95" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="53" t="s">
+      <c r="B95" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="54">
+      <c r="C95" s="52">
         <v>0.50149999999999995</v>
       </c>
-      <c r="D95" s="54">
+      <c r="D95" s="52">
         <v>0.89662500000000001</v>
       </c>
-      <c r="E95" s="55">
+      <c r="E95" s="53">
         <v>0.56473333333332998</v>
       </c>
-      <c r="F95" s="56">
+      <c r="F95" s="54">
         <v>37.8363636363636</v>
       </c>
-      <c r="G95" s="56">
+      <c r="G95" s="54">
         <v>50.64</v>
       </c>
-      <c r="H95" s="56">
+      <c r="H95" s="54">
         <v>29.816666666666698</v>
       </c>
-      <c r="I95" s="56">
+      <c r="I95" s="54">
         <v>39.3333333333333</v>
       </c>
-      <c r="J95" s="57">
+      <c r="J95" s="55">
         <v>33.25</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="47" t="s">
+      <c r="A96" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B96" s="58" t="s">
+      <c r="B96" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="C96" s="59">
+      <c r="C96" s="57">
         <v>0.70274999999999999</v>
       </c>
-      <c r="D96" s="59">
+      <c r="D96" s="57">
         <v>0.93100000000000005</v>
       </c>
-      <c r="E96" s="60">
+      <c r="E96" s="58">
         <v>0.34986666666666999</v>
       </c>
-      <c r="F96" s="61">
+      <c r="F96" s="59">
         <v>27.9538461538462</v>
       </c>
-      <c r="G96" s="61">
+      <c r="G96" s="59">
         <v>36.912500000000001</v>
       </c>
-      <c r="H96" s="61">
+      <c r="H96" s="59">
         <v>21.6428571428571</v>
       </c>
-      <c r="I96" s="61">
+      <c r="I96" s="59">
         <v>28.276923076923101</v>
       </c>
-      <c r="J96" s="62">
+      <c r="J96" s="60">
         <v>23.435714285714301</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A97" s="47" t="s">
+      <c r="A97" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="53" t="s">
+      <c r="B97" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="C97" s="54">
+      <c r="C97" s="52">
         <v>0.51280555555555996</v>
       </c>
-      <c r="D97" s="54">
+      <c r="D97" s="52">
         <v>0.88278124999999996</v>
       </c>
-      <c r="E97" s="55">
+      <c r="E97" s="53">
         <v>0.57285185185184995</v>
       </c>
-      <c r="F97" s="56">
+      <c r="F97" s="54">
         <v>42</v>
       </c>
-      <c r="G97" s="56">
+      <c r="G97" s="54">
         <v>58.586111111111101</v>
       </c>
-      <c r="H97" s="56">
+      <c r="H97" s="54">
         <v>32.342307692307699</v>
       </c>
-      <c r="I97" s="56">
+      <c r="I97" s="54">
         <v>42.595238095238102</v>
       </c>
-      <c r="J97" s="57">
+      <c r="J97" s="55">
         <v>37.376923076923099</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A98" s="47" t="s">
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B98" s="53" t="s">
+      <c r="B98" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="C98" s="54">
+      <c r="C98" s="57">
         <v>0.60844444444444001</v>
       </c>
-      <c r="D98" s="54">
+      <c r="D98" s="57">
         <v>0.85668750000000005</v>
       </c>
-      <c r="E98" s="55">
+      <c r="E98" s="58">
         <v>0.52576470588235003</v>
       </c>
-      <c r="F98" s="56">
+      <c r="F98" s="59">
         <v>41.592857142857099</v>
       </c>
-      <c r="G98" s="56">
+      <c r="G98" s="59">
         <v>56.711111111111101</v>
       </c>
-      <c r="H98" s="56">
+      <c r="H98" s="59">
         <v>29.34</v>
       </c>
-      <c r="I98" s="56">
+      <c r="I98" s="59">
         <v>31.233333333333299</v>
       </c>
-      <c r="J98" s="57">
+      <c r="J98" s="60">
         <v>41.973333333333301</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B99" s="58" t="s">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99" s="61"/>
+      <c r="B99" s="62"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="63"/>
+      <c r="G99" s="63"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="63"/>
+      <c r="J99" s="63"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C99" s="59">
-        <v>0.49641666666667</v>
-      </c>
-      <c r="D99" s="59">
-        <v>0.80549999999999999</v>
-      </c>
-      <c r="E99" s="60">
-        <v>0.61554545454544995</v>
-      </c>
-      <c r="F99" s="61">
-        <v>48.3857142857143</v>
-      </c>
-      <c r="G99" s="61">
-        <v>68.066666666666706</v>
-      </c>
-      <c r="H99" s="61">
-        <v>33.65</v>
-      </c>
-      <c r="I99" s="61">
-        <v>41.228571428571399</v>
-      </c>
-      <c r="J99" s="62">
-        <v>45.344444444444399</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A100" s="63"/>
-      <c r="B100" s="64"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="65"/>
-      <c r="H100" s="65"/>
-      <c r="I100" s="65"/>
-      <c r="J100" s="65"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A101" s="66" t="s">
+      <c r="A101" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A102" s="66" t="s">
+      <c r="A102" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A103" s="66" t="s">
+      <c r="A103" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A104" s="66" t="s">
+      <c r="A104" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A105" s="66" t="s">
+    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="65" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="69" t="s">
+      <c r="B108" s="65"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B109" s="69"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
@@ -4558,32 +4565,27 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B112" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B114" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B110" r:id="rId1"/>
-    <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B114" r:id="rId3"/>
-    <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B108" r:id="rId5" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{7AAC1EB8-F591-4DB5-9001-E92CE301632F}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{BA622AE8-1DCF-4AB4-A79C-D4DAAA4CB038}"/>
+    <hyperlink ref="B107" r:id="rId1" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{09BBC619-8E3E-4889-AAED-4162FF589102}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{E9C92020-9713-4A78-8811-EA5F4F7685EC}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{193D2BA1-0654-4D3C-84A9-B04E32CC0395}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab12.xlsx
+++ b/AfDD_2023_Annex_Table_Tab12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69DBCC72-93CF-4CF1-8C1F-E2442B6C0AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82F2715D-D3E1-43F7-B8F7-10C595562D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{77B2C793-329D-490B-BBBF-45613935E893}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3F7DD1F-3DA5-421A-9780-825A168FF170}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -48,28 +48,28 @@
     <t>Country (Resource-rich countries are shaded)</t>
   </si>
   <si>
-    <t>Percentage of large firms using their own website, most recent measure 2012-21</t>
-  </si>
-  <si>
-    <t>Percentage of medium-sized firms using their own website, most recent measure 2012-21</t>
-  </si>
-  <si>
-    <t>Percentage of small firms using their own website, most recent measure 2012-21</t>
-  </si>
-  <si>
-    <t>Percentage of firms of all sizes using their own website, most recent measure 2012-21</t>
-  </si>
-  <si>
-    <t>Percentage of large firms using email to interact with clients/suppliers, most recent measure 2012-21</t>
-  </si>
-  <si>
-    <t>Percentage of medium-sized firms using email to interact with clients/suppliers, most recent measure 2012-21</t>
-  </si>
-  <si>
-    <t>Percentage of small firms using email to interact with clients/suppliers, most recent measure 2012-21</t>
-  </si>
-  <si>
-    <t>Percentage of firms of all sizes using email to interact with clients/suppliers, most recent measure 2012-21</t>
+    <t>Percentage of large firms using their own website, most recent measure 2013-22</t>
+  </si>
+  <si>
+    <t>Percentage of medium-sized firms using their own website, most recent measure 2013-22</t>
+  </si>
+  <si>
+    <t>Percentage of small firms using their own website, most recent measure 2013-22</t>
+  </si>
+  <si>
+    <t>Percentage of firms of all sizes using their own website, most recent measure 2013-22</t>
+  </si>
+  <si>
+    <t>Percentage of large firms using email to interact with clients/suppliers, most recent measure 2013-22</t>
+  </si>
+  <si>
+    <t>Percentage of medium-sized firms using email to interact with clients/suppliers, most recent measure 2013-22</t>
+  </si>
+  <si>
+    <t>Percentage of small firms using email to interact with clients/suppliers, most recent measure 2013-22</t>
+  </si>
+  <si>
+    <t>Percentage of firms of all sizes using email to interact with clients/suppliers, most recent measure 2013-22</t>
   </si>
   <si>
     <t>Total exports of ICT services, millions of USD, 2019</t>
@@ -552,7 +552,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: Author's calculations based on World Bank Enterprise Survey (retrieved April 2020), UNCTADStat Online Data Centre (retrieved 25/08/2022), UNCTAD B2C E-Commerce Index Reports (2015-2020).</t>
@@ -1394,7 +1394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF8535C-398A-45A0-A2FF-68BD5E7B5BFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF577B2-8F82-42E5-98E5-C9DD48E5A142}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1964,7 +1964,7 @@
         <v>37.285714285714299</v>
       </c>
       <c r="G13" s="24">
-        <v>88.133333333333397</v>
+        <v>88.133333333333297</v>
       </c>
       <c r="H13" s="25">
         <v>81.466666666666697</v>
@@ -4423,7 +4423,7 @@
         <v>133993.53652170001</v>
       </c>
       <c r="L65" s="44">
-        <v>7.1313346413333303</v>
+        <v>7.1313346413333401</v>
       </c>
       <c r="M65" s="44">
         <v>365355.84289600002</v>
@@ -5184,7 +5184,7 @@
         <v>22.641033643588202</v>
       </c>
       <c r="O81" s="45">
-        <v>58.217647058823601</v>
+        <v>58.217647058823502</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
@@ -6263,11 +6263,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{43C0A7DA-79AB-4857-A750-A2FCAF1BB643}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{730F513A-DDF6-4E9B-A26B-39D8556E218C}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{12D2EC96-393E-4151-86A1-F879E746F8C3}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{A4B82544-885D-4ACB-8078-B46437D53DC9}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{6FB17620-53ED-4F1E-BBFC-C9CE5FF59D7A}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{5538148B-5BDE-4434-A839-040FBF37FC89}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{A279FB1A-7EFB-4D08-8C03-08465144BC20}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{55EE30B8-6E41-4EF8-839B-50EE10627EFB}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{555E3E8F-54D7-435A-89EE-020AB07D26D2}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{6BEB9E6C-CF89-4AD8-9050-E85CCA86E2DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab12.xlsx
+++ b/AfDD_2023_Annex_Table_Tab12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82F2715D-D3E1-43F7-B8F7-10C595562D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02090615-E691-460F-A475-DEB98760767F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3F7DD1F-3DA5-421A-9780-825A168FF170}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C8BBD256-4B45-4118-82AA-FE9829205DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab12'!$A$2:$O$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab12'!$A$1:$E$98</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -276,7 +276,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
+    <t>South Sudan*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -408,7 +408,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -1394,7 +1394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF577B2-8F82-42E5-98E5-C9DD48E5A142}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09958638-A771-4F6B-8C08-1BB4DEB54751}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2935,46 +2935,46 @@
       <c r="A34" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="28">
         <v>76</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="29">
         <v>61.9</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="29">
         <v>19.600000000000001</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="30">
         <v>25.6</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="28">
         <v>82.1</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="29">
         <v>80.599999999999994</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="29">
         <v>46.6</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="30">
         <v>51.2</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K34" s="28">
         <v>0.35</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="29">
         <v>0.33451208999999998</v>
       </c>
-      <c r="M34" s="16">
+      <c r="M34" s="29">
         <v>100.11</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N34" s="30">
         <v>95.68001529</v>
       </c>
-      <c r="O34" s="17" t="s">
+      <c r="O34" s="30" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4016,46 +4016,46 @@
       <c r="A57" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C57" s="19">
         <v>69.8</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="20">
         <v>48.2</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E57" s="20">
         <v>14.8</v>
       </c>
-      <c r="F57" s="30">
+      <c r="F57" s="21">
         <v>22.3</v>
       </c>
-      <c r="G57" s="28">
+      <c r="G57" s="19">
         <v>78.599999999999994</v>
       </c>
-      <c r="H57" s="29">
+      <c r="H57" s="20">
         <v>35.5</v>
       </c>
-      <c r="I57" s="29">
+      <c r="I57" s="20">
         <v>18.899999999999999</v>
       </c>
-      <c r="J57" s="30">
+      <c r="J57" s="21">
         <v>23.5</v>
       </c>
-      <c r="K57" s="28">
+      <c r="K57" s="19">
         <v>211.875</v>
       </c>
-      <c r="L57" s="29">
+      <c r="L57" s="20">
         <v>4.2810173980000004</v>
       </c>
-      <c r="M57" s="29">
+      <c r="M57" s="20">
         <v>1068.8800000000001</v>
       </c>
-      <c r="N57" s="30">
+      <c r="N57" s="21">
         <v>21.597139240000001</v>
       </c>
-      <c r="O57" s="30">
+      <c r="O57" s="21">
         <v>46.2</v>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
         <v>48.6666666666667</v>
       </c>
       <c r="E68" s="44">
-        <v>25.4444444444445</v>
+        <v>25.4444444444444</v>
       </c>
       <c r="F68" s="45">
         <v>35.711111111111101</v>
@@ -4555,7 +4555,7 @@
         <v>77.452941176470603</v>
       </c>
       <c r="I68" s="44">
-        <v>53.941176470588204</v>
+        <v>53.941176470588303</v>
       </c>
       <c r="J68" s="45">
         <v>62.688235294117703</v>
@@ -4584,43 +4584,43 @@
         <v>138</v>
       </c>
       <c r="C69" s="43">
-        <v>69.8</v>
+        <v>64.616666666666703</v>
       </c>
       <c r="D69" s="44">
-        <v>46.58</v>
+        <v>45.35</v>
       </c>
       <c r="E69" s="44">
-        <v>20.98</v>
+        <v>19.5833333333333</v>
       </c>
       <c r="F69" s="45">
-        <v>28.06</v>
+        <v>26.216666666666701</v>
       </c>
       <c r="G69" s="43">
-        <v>85.96</v>
+        <v>84.4166666666667</v>
       </c>
       <c r="H69" s="44">
-        <v>70.08</v>
+        <v>69.866666666666703</v>
       </c>
       <c r="I69" s="44">
-        <v>43.94</v>
+        <v>40.549999999999997</v>
       </c>
       <c r="J69" s="45">
-        <v>52.08</v>
+        <v>48.633333333333297</v>
       </c>
       <c r="K69" s="43">
-        <v>699.79200000000003</v>
+        <v>701.91200000000003</v>
       </c>
       <c r="L69" s="44">
-        <v>3.0426021714</v>
+        <v>2.7845174928333298</v>
       </c>
       <c r="M69" s="44">
-        <v>2129.1219999999998</v>
+        <v>2135.1089999999999</v>
       </c>
       <c r="N69" s="45">
-        <v>28.9695663778</v>
+        <v>24.844539699666701</v>
       </c>
       <c r="O69" s="45">
-        <v>31.42</v>
+        <v>28.316666666666698</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
@@ -4737,7 +4737,7 @@
         <v>38.716666666666697</v>
       </c>
       <c r="G72" s="43">
-        <v>83.183333333333394</v>
+        <v>83.183333333333294</v>
       </c>
       <c r="H72" s="44">
         <v>77.866666666666703</v>
@@ -4996,7 +4996,7 @@
         <v>34.171868289090902</v>
       </c>
       <c r="O77" s="45">
-        <v>52.48</v>
+        <v>52.977777777777803</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
@@ -5101,43 +5101,43 @@
         <v>149</v>
       </c>
       <c r="C80" s="51">
-        <v>67</v>
+        <v>69.066666666666706</v>
       </c>
       <c r="D80" s="52">
-        <v>37.766666666666701</v>
+        <v>42.3333333333333</v>
       </c>
       <c r="E80" s="52">
-        <v>15.2</v>
+        <v>16.8</v>
       </c>
       <c r="F80" s="53">
-        <v>24.133333333333301</v>
+        <v>25.233333333333299</v>
       </c>
       <c r="G80" s="51">
-        <v>85.766666666666694</v>
+        <v>86.933333333333394</v>
       </c>
       <c r="H80" s="52">
-        <v>60.6666666666667</v>
+        <v>75.7</v>
       </c>
       <c r="I80" s="52">
-        <v>36.266666666666701</v>
+        <v>45.5</v>
       </c>
       <c r="J80" s="53">
-        <v>43.566666666666698</v>
+        <v>52.8</v>
       </c>
       <c r="K80" s="51">
-        <v>343.64499999999998</v>
+        <v>132.12</v>
       </c>
       <c r="L80" s="52">
-        <v>3.7371279652</v>
+        <v>2.9478269036000002</v>
       </c>
       <c r="M80" s="52">
-        <v>3398.7710000000002</v>
+        <v>2430.0010000000002</v>
       </c>
       <c r="N80" s="53">
-        <v>24.358750754999999</v>
+        <v>39.175325964999999</v>
       </c>
       <c r="O80" s="53">
-        <v>30.887499999999999</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
@@ -5195,43 +5195,43 @@
         <v>151</v>
       </c>
       <c r="C82" s="43">
-        <v>69.296875</v>
+        <v>69.103125000000006</v>
       </c>
       <c r="D82" s="44">
-        <v>47.771875000000001</v>
+        <v>47.34375</v>
       </c>
       <c r="E82" s="44">
-        <v>25.184374999999999</v>
+        <v>25.034375000000001</v>
       </c>
       <c r="F82" s="45">
-        <v>34.028125000000003</v>
+        <v>33.924999999999997</v>
       </c>
       <c r="G82" s="43">
-        <v>89.4166666666667</v>
+        <v>89.3</v>
       </c>
       <c r="H82" s="44">
-        <v>77.956666666666706</v>
+        <v>76.453333333333404</v>
       </c>
       <c r="I82" s="44">
-        <v>53.773333333333397</v>
+        <v>52.85</v>
       </c>
       <c r="J82" s="45">
-        <v>62.27</v>
+        <v>61.3466666666667</v>
       </c>
       <c r="K82" s="43">
-        <v>5022.0628106000004</v>
+        <v>5233.5878106</v>
       </c>
       <c r="L82" s="44">
-        <v>8.4375454278055599</v>
+        <v>8.54717057525</v>
       </c>
       <c r="M82" s="44">
-        <v>24217.284678700002</v>
+        <v>25186.054678699998</v>
       </c>
       <c r="N82" s="45">
-        <v>27.0979690593784</v>
+        <v>25.095729166135101</v>
       </c>
       <c r="O82" s="45">
-        <v>29.516666666666701</v>
+        <v>29.967567567567599</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5289,43 +5289,43 @@
         <v>153</v>
       </c>
       <c r="C84" s="51">
-        <v>63.605882352941201</v>
+        <v>63.461111111111101</v>
       </c>
       <c r="D84" s="52">
-        <v>41.241176470588201</v>
+        <v>40.677777777777798</v>
       </c>
       <c r="E84" s="52">
-        <v>20.382352941176499</v>
+        <v>20.011111111111099</v>
       </c>
       <c r="F84" s="53">
-        <v>28.105882352941201</v>
+        <v>27.672222222222199</v>
       </c>
       <c r="G84" s="51">
-        <v>85.653333333333407</v>
+        <v>86.293750000000003</v>
       </c>
       <c r="H84" s="52">
-        <v>73.546666666666695</v>
+        <v>72.53125</v>
       </c>
       <c r="I84" s="52">
-        <v>47.706666666666699</v>
+        <v>47.762500000000003</v>
       </c>
       <c r="J84" s="53">
-        <v>56.026666666666699</v>
+        <v>55.84375</v>
       </c>
       <c r="K84" s="51">
-        <v>796.76090299999998</v>
+        <v>815.27690299999995</v>
       </c>
       <c r="L84" s="52">
-        <v>12.203208196812501</v>
+        <v>11.593017487588201</v>
       </c>
       <c r="M84" s="52">
-        <v>2004.7982407</v>
+        <v>2119.1882406999998</v>
       </c>
       <c r="N84" s="53">
-        <v>32.4191310514706</v>
+        <v>31.246143113611101</v>
       </c>
       <c r="O84" s="53">
-        <v>18.352941176470601</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
@@ -5383,43 +5383,43 @@
         <v>155</v>
       </c>
       <c r="C86" s="43">
-        <v>72.811764705882396</v>
+        <v>73.55</v>
       </c>
       <c r="D86" s="44">
-        <v>51.835294117647102</v>
+        <v>53.131250000000001</v>
       </c>
       <c r="E86" s="44">
-        <v>27.829411764705899</v>
+        <v>28.712499999999999</v>
       </c>
       <c r="F86" s="45">
-        <v>37.888235294117699</v>
+        <v>38.987499999999997</v>
       </c>
       <c r="G86" s="43">
-        <v>91.470588235294201</v>
+        <v>91.193749999999994</v>
       </c>
       <c r="H86" s="44">
-        <v>77.900000000000006</v>
+        <v>79.1875</v>
       </c>
       <c r="I86" s="44">
-        <v>54.864705882353</v>
+        <v>55.256250000000001</v>
       </c>
       <c r="J86" s="45">
-        <v>63.547058823529397</v>
+        <v>64.2</v>
       </c>
       <c r="K86" s="43">
-        <v>4383.1659075999996</v>
+        <v>4364.6499076</v>
       </c>
       <c r="L86" s="44">
-        <v>5.5706391909999997</v>
+        <v>5.75767284355</v>
       </c>
       <c r="M86" s="44">
-        <v>20435.402438000001</v>
+        <v>20321.012438000002</v>
       </c>
       <c r="N86" s="45">
-        <v>22.9257965386</v>
+        <v>23.537399084315801</v>
       </c>
       <c r="O86" s="45">
-        <v>33.928571428571402</v>
+        <v>34.125</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
@@ -5430,43 +5430,43 @@
         <v>156</v>
       </c>
       <c r="C87" s="43">
-        <v>77.525000000000006</v>
+        <v>78.661538461538498</v>
       </c>
       <c r="D87" s="44">
-        <v>51.433333333333302</v>
+        <v>53.515384615384598</v>
       </c>
       <c r="E87" s="44">
-        <v>28.241666666666699</v>
+        <v>30.207692307692302</v>
       </c>
       <c r="F87" s="45">
-        <v>38.883333333333297</v>
+        <v>40.815384615384602</v>
       </c>
       <c r="G87" s="43">
-        <v>93.5416666666667</v>
+        <v>93.915384615384596</v>
       </c>
       <c r="H87" s="44">
-        <v>76.825000000000003</v>
+        <v>77.615384615384599</v>
       </c>
       <c r="I87" s="44">
-        <v>55.3</v>
+        <v>57.069230769230799</v>
       </c>
       <c r="J87" s="45">
-        <v>65.2083333333334</v>
+        <v>66.5230769230769</v>
       </c>
       <c r="K87" s="43">
-        <v>81089.109931700004</v>
+        <v>81611.359931700004</v>
       </c>
       <c r="L87" s="44">
-        <v>7.5881654863461501</v>
+        <v>7.5778063753846201</v>
       </c>
       <c r="M87" s="44">
-        <v>200205.47909050001</v>
+        <v>203608.65209049999</v>
       </c>
       <c r="N87" s="45">
-        <v>21.1765198486552</v>
+        <v>21.662767979689701</v>
       </c>
       <c r="O87" s="45">
-        <v>42.975000000000001</v>
+        <v>43.466666666666697</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
@@ -5524,43 +5524,43 @@
         <v>158</v>
       </c>
       <c r="C89" s="43">
-        <v>84.1357142857143</v>
+        <v>83.507692307692295</v>
       </c>
       <c r="D89" s="44">
-        <v>71.285714285714306</v>
+        <v>70.730769230769198</v>
       </c>
       <c r="E89" s="44">
-        <v>52.414285714285697</v>
+        <v>52.307692307692299</v>
       </c>
       <c r="F89" s="45">
-        <v>60.792857142857201</v>
+        <v>60.546153846153899</v>
       </c>
       <c r="G89" s="43">
-        <v>93.623076923076894</v>
+        <v>93.224999999999994</v>
       </c>
       <c r="H89" s="44">
-        <v>91.230769230769198</v>
+        <v>91.575000000000003</v>
       </c>
       <c r="I89" s="44">
-        <v>78.438461538461496</v>
+        <v>78.45</v>
       </c>
       <c r="J89" s="45">
-        <v>83.738461538461607</v>
+        <v>83.858333333333405</v>
       </c>
       <c r="K89" s="43">
-        <v>84750.322199500006</v>
+        <v>78385.100199499997</v>
       </c>
       <c r="L89" s="44">
-        <v>6.8226239747631601</v>
+        <v>6.64171165322223</v>
       </c>
       <c r="M89" s="44">
-        <v>277162.75671019999</v>
+        <v>258205.04571020001</v>
       </c>
       <c r="N89" s="45">
-        <v>22.7547957062093</v>
+        <v>22.0593773816341</v>
       </c>
       <c r="O89" s="45">
-        <v>60.615151515151503</v>
+        <v>60.129032258064498</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5595,19 +5595,19 @@
         <v>18</v>
       </c>
       <c r="K90" s="47">
-        <v>444516.05002899998</v>
+        <v>450359.02202899999</v>
       </c>
       <c r="L90" s="48">
-        <v>11.3585603683415</v>
+        <v>11.3053117095814</v>
       </c>
       <c r="M90" s="48">
-        <v>2639368.7194480998</v>
+        <v>2654923.2574481</v>
       </c>
       <c r="N90" s="49">
-        <v>39.782968875119998</v>
+        <v>39.405172897615401</v>
       </c>
       <c r="O90" s="49">
-        <v>82.886956521739194</v>
+        <v>82.027083333333394</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
@@ -5795,7 +5795,7 @@
         <v>17.45535649264</v>
       </c>
       <c r="O94" s="45">
-        <v>56.014285714285698</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
@@ -5833,7 +5833,7 @@
         <v>592.00590299999999</v>
       </c>
       <c r="L95" s="44">
-        <v>8.91697434083334</v>
+        <v>8.9169743408333293</v>
       </c>
       <c r="M95" s="44">
         <v>1721.0882406999999</v>
@@ -5900,43 +5900,43 @@
         <v>166</v>
       </c>
       <c r="C97" s="51">
-        <v>64.674074074074099</v>
+        <v>65.707142857142898</v>
       </c>
       <c r="D97" s="52">
-        <v>42.144444444444503</v>
+        <v>42.717857142857198</v>
       </c>
       <c r="E97" s="52">
-        <v>21.711111111111101</v>
+        <v>21.05</v>
       </c>
       <c r="F97" s="53">
-        <v>29.018518518518501</v>
+        <v>29.35</v>
       </c>
       <c r="G97" s="51">
-        <v>86.855999999999995</v>
+        <v>87.126923076923106</v>
       </c>
       <c r="H97" s="52">
-        <v>72.688000000000002</v>
+        <v>72.723076923076903</v>
       </c>
       <c r="I97" s="52">
-        <v>47.508000000000003</v>
+        <v>47.938461538461503</v>
       </c>
       <c r="J97" s="53">
-        <v>55.787999999999997</v>
+        <v>56.342307692307699</v>
       </c>
       <c r="K97" s="51">
-        <v>2079.3559030000001</v>
+        <v>2096.4389030000002</v>
       </c>
       <c r="L97" s="52">
-        <v>9.5547387934230805</v>
+        <v>9.3205861987407399</v>
       </c>
       <c r="M97" s="52">
-        <v>5819.6362406999997</v>
+        <v>5913.8902406999996</v>
       </c>
       <c r="N97" s="53">
-        <v>27.519693405538501</v>
+        <v>27.161026947185199</v>
       </c>
       <c r="O97" s="53">
-        <v>24.1</v>
+        <v>23.990322580645199</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5971,16 +5971,16 @@
         <v>59.6</v>
       </c>
       <c r="K98" s="47">
-        <v>3372.9580000000001</v>
+        <v>3374.2669999999998</v>
       </c>
       <c r="L98" s="48">
-        <v>7.3730676283076999</v>
+        <v>6.9485901003571504</v>
       </c>
       <c r="M98" s="48">
-        <v>10869.0562445</v>
+        <v>10870.9432445</v>
       </c>
       <c r="N98" s="49">
-        <v>23.880698230071399</v>
+        <v>22.426116987266699</v>
       </c>
       <c r="O98" s="49">
         <v>32.924999999999997</v>
@@ -6263,11 +6263,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{5538148B-5BDE-4434-A839-040FBF37FC89}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{A279FB1A-7EFB-4D08-8C03-08465144BC20}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{55EE30B8-6E41-4EF8-839B-50EE10627EFB}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{555E3E8F-54D7-435A-89EE-020AB07D26D2}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{6BEB9E6C-CF89-4AD8-9050-E85CCA86E2DA}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{FDF8C9AC-FB6E-4853-845D-D3F920CCAAFD}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{DB4892BE-6FF8-47D7-A345-0B9BB33B5E7A}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{5789E575-E1C3-4E1B-94CD-9DB3EF0F2844}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{FA7A80C8-5D72-4C50-95FA-377FA8733BC1}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{5372FF96-A5F1-4326-B57F-FEC8BC751D33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab12.xlsx
+++ b/AfDD_2023_Annex_Table_Tab12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02090615-E691-460F-A475-DEB98760767F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D737466E-D777-46B9-931E-A781CED545FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C8BBD256-4B45-4118-82AA-FE9829205DCB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FC063984-E2B0-4ACF-9FC9-F117FA0192F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -1394,7 +1394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09958638-A771-4F6B-8C08-1BB4DEB54751}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7D367D-0E77-4C5A-B2C3-E6FABB399422}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4208,7 +4208,7 @@
         <v>130</v>
       </c>
       <c r="C61" s="24">
-        <v>67.358333333333405</v>
+        <v>67.358333333333306</v>
       </c>
       <c r="D61" s="25">
         <v>41.716666666666697</v>
@@ -4276,7 +4276,7 @@
         <v>52.181818181818201</v>
       </c>
       <c r="J62" s="36">
-        <v>60.569696969696999</v>
+        <v>60.569696969696899</v>
       </c>
       <c r="K62" s="34">
         <v>5365.7078105999999</v>
@@ -4305,7 +4305,7 @@
         <v>80.382142857142895</v>
       </c>
       <c r="D63" s="39">
-        <v>60.753571428571398</v>
+        <v>60.753571428571497</v>
       </c>
       <c r="E63" s="39">
         <v>39.357142857142897</v>
@@ -4361,7 +4361,7 @@
         <v>59.1727272727273</v>
       </c>
       <c r="G64" s="34">
-        <v>98.73</v>
+        <v>98.730000000000103</v>
       </c>
       <c r="H64" s="35">
         <v>95.88</v>
@@ -4443,7 +4443,7 @@
         <v>135</v>
       </c>
       <c r="C66" s="47">
-        <v>74.1142857142857</v>
+        <v>74.114285714285799</v>
       </c>
       <c r="D66" s="48">
         <v>53.065079365079399</v>
@@ -4452,7 +4452,7 @@
         <v>31.007936507936499</v>
       </c>
       <c r="F66" s="49">
-        <v>40.028571428571396</v>
+        <v>40.028571428571503</v>
       </c>
       <c r="G66" s="47">
         <v>91.241666666666703</v>
@@ -4502,7 +4502,7 @@
         <v>40.228571428571399</v>
       </c>
       <c r="G67" s="51">
-        <v>90.314285714285703</v>
+        <v>90.314285714285802</v>
       </c>
       <c r="H67" s="52">
         <v>79.185714285714297</v>
@@ -4960,7 +4960,7 @@
         <v>146</v>
       </c>
       <c r="C77" s="43">
-        <v>91.383333333333297</v>
+        <v>91.383333333333397</v>
       </c>
       <c r="D77" s="44">
         <v>80.2</v>
@@ -5210,13 +5210,13 @@
         <v>89.3</v>
       </c>
       <c r="H82" s="44">
-        <v>76.453333333333404</v>
+        <v>76.453333333333305</v>
       </c>
       <c r="I82" s="44">
         <v>52.85</v>
       </c>
       <c r="J82" s="45">
-        <v>61.3466666666667</v>
+        <v>61.3466666666666</v>
       </c>
       <c r="K82" s="43">
         <v>5233.5878106</v>
@@ -5821,13 +5821,13 @@
         <v>85.758333333333297</v>
       </c>
       <c r="H95" s="44">
-        <v>75.033333333333402</v>
+        <v>75.033333333333303</v>
       </c>
       <c r="I95" s="44">
         <v>51.341666666666697</v>
       </c>
       <c r="J95" s="45">
-        <v>59.033333333333402</v>
+        <v>59.033333333333303</v>
       </c>
       <c r="K95" s="43">
         <v>592.00590299999999</v>
@@ -5865,7 +5865,7 @@
         <v>42.209090909090897</v>
       </c>
       <c r="G96" s="47">
-        <v>92.618181818181895</v>
+        <v>92.618181818181796</v>
       </c>
       <c r="H96" s="48">
         <v>81.763636363636394</v>
@@ -5903,7 +5903,7 @@
         <v>65.707142857142898</v>
       </c>
       <c r="D97" s="52">
-        <v>42.717857142857198</v>
+        <v>42.717857142857099</v>
       </c>
       <c r="E97" s="52">
         <v>21.05</v>
@@ -5918,7 +5918,7 @@
         <v>72.723076923076903</v>
       </c>
       <c r="I97" s="52">
-        <v>47.938461538461503</v>
+        <v>47.938461538461603</v>
       </c>
       <c r="J97" s="53">
         <v>56.342307692307699</v>
@@ -6263,11 +6263,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{FDF8C9AC-FB6E-4853-845D-D3F920CCAAFD}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{DB4892BE-6FF8-47D7-A345-0B9BB33B5E7A}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{5789E575-E1C3-4E1B-94CD-9DB3EF0F2844}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{FA7A80C8-5D72-4C50-95FA-377FA8733BC1}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{5372FF96-A5F1-4326-B57F-FEC8BC751D33}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{FA0B8DE1-619E-4B86-A94E-64DB15C5E5AF}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{72221D73-9728-4DDB-96E0-B643806CF199}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{83744D8A-DF3E-41DB-8BC8-D0956B8B7D49}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{3DC22BD6-D498-4F9D-BDF3-0B28E4D1BAF1}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{453637DA-C264-43FC-B5F3-5A69DCDED464}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab12.xlsx
+++ b/AfDD_2023_Annex_Table_Tab12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D737466E-D777-46B9-931E-A781CED545FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41032197-CACC-4673-8A26-CB6598BB3005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FC063984-E2B0-4ACF-9FC9-F117FA0192F7}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{964149E1-FFAF-4C3F-9487-D1EEDF47A8F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: Author's calculations based on World Bank Enterprise Survey (retrieved April 2020), UNCTADStat Online Data Centre (retrieved 25/08/2022), UNCTAD B2C E-Commerce Index Reports (2015-2020).</t>
@@ -1394,7 +1394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7D367D-0E77-4C5A-B2C3-E6FABB399422}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49FF147-E825-4951-B16A-B9DAA2F054DB}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4208,7 +4208,7 @@
         <v>130</v>
       </c>
       <c r="C61" s="24">
-        <v>67.358333333333306</v>
+        <v>67.358333333333405</v>
       </c>
       <c r="D61" s="25">
         <v>41.716666666666697</v>
@@ -4276,7 +4276,7 @@
         <v>52.181818181818201</v>
       </c>
       <c r="J62" s="36">
-        <v>60.569696969696899</v>
+        <v>60.569696969696999</v>
       </c>
       <c r="K62" s="34">
         <v>5365.7078105999999</v>
@@ -4305,7 +4305,7 @@
         <v>80.382142857142895</v>
       </c>
       <c r="D63" s="39">
-        <v>60.753571428571497</v>
+        <v>60.753571428571398</v>
       </c>
       <c r="E63" s="39">
         <v>39.357142857142897</v>
@@ -4361,7 +4361,7 @@
         <v>59.1727272727273</v>
       </c>
       <c r="G64" s="34">
-        <v>98.730000000000103</v>
+        <v>98.73</v>
       </c>
       <c r="H64" s="35">
         <v>95.88</v>
@@ -4443,7 +4443,7 @@
         <v>135</v>
       </c>
       <c r="C66" s="47">
-        <v>74.114285714285799</v>
+        <v>74.1142857142857</v>
       </c>
       <c r="D66" s="48">
         <v>53.065079365079399</v>
@@ -4452,7 +4452,7 @@
         <v>31.007936507936499</v>
       </c>
       <c r="F66" s="49">
-        <v>40.028571428571503</v>
+        <v>40.028571428571396</v>
       </c>
       <c r="G66" s="47">
         <v>91.241666666666703</v>
@@ -4502,7 +4502,7 @@
         <v>40.228571428571399</v>
       </c>
       <c r="G67" s="51">
-        <v>90.314285714285802</v>
+        <v>90.314285714285703</v>
       </c>
       <c r="H67" s="52">
         <v>79.185714285714297</v>
@@ -4960,7 +4960,7 @@
         <v>146</v>
       </c>
       <c r="C77" s="43">
-        <v>91.383333333333397</v>
+        <v>91.383333333333297</v>
       </c>
       <c r="D77" s="44">
         <v>80.2</v>
@@ -5210,13 +5210,13 @@
         <v>89.3</v>
       </c>
       <c r="H82" s="44">
-        <v>76.453333333333305</v>
+        <v>76.453333333333404</v>
       </c>
       <c r="I82" s="44">
         <v>52.85</v>
       </c>
       <c r="J82" s="45">
-        <v>61.3466666666666</v>
+        <v>61.3466666666667</v>
       </c>
       <c r="K82" s="43">
         <v>5233.5878106</v>
@@ -5821,13 +5821,13 @@
         <v>85.758333333333297</v>
       </c>
       <c r="H95" s="44">
-        <v>75.033333333333303</v>
+        <v>75.033333333333402</v>
       </c>
       <c r="I95" s="44">
         <v>51.341666666666697</v>
       </c>
       <c r="J95" s="45">
-        <v>59.033333333333303</v>
+        <v>59.033333333333402</v>
       </c>
       <c r="K95" s="43">
         <v>592.00590299999999</v>
@@ -5865,7 +5865,7 @@
         <v>42.209090909090897</v>
       </c>
       <c r="G96" s="47">
-        <v>92.618181818181796</v>
+        <v>92.618181818181895</v>
       </c>
       <c r="H96" s="48">
         <v>81.763636363636394</v>
@@ -5900,43 +5900,43 @@
         <v>166</v>
       </c>
       <c r="C97" s="51">
-        <v>65.707142857142898</v>
+        <v>66.330434782608705</v>
       </c>
       <c r="D97" s="52">
-        <v>42.717857142857099</v>
+        <v>42.991304347826102</v>
       </c>
       <c r="E97" s="52">
-        <v>21.05</v>
+        <v>20.4434782608696</v>
       </c>
       <c r="F97" s="53">
-        <v>29.35</v>
+        <v>29.539130434782599</v>
       </c>
       <c r="G97" s="51">
-        <v>87.126923076923106</v>
+        <v>88.714285714285694</v>
       </c>
       <c r="H97" s="52">
-        <v>72.723076923076903</v>
+        <v>73.109523809523793</v>
       </c>
       <c r="I97" s="52">
-        <v>47.938461538461603</v>
+        <v>49.5</v>
       </c>
       <c r="J97" s="53">
-        <v>56.342307692307699</v>
+        <v>58.257142857142902</v>
       </c>
       <c r="K97" s="51">
-        <v>2096.4389030000002</v>
+        <v>2093.8479029999999</v>
       </c>
       <c r="L97" s="52">
-        <v>9.3205861987407399</v>
+        <v>10.409098627500001</v>
       </c>
       <c r="M97" s="52">
-        <v>5913.8902406999996</v>
+        <v>5752.4042406999997</v>
       </c>
       <c r="N97" s="53">
-        <v>27.161026947185199</v>
+        <v>26.224801780958298</v>
       </c>
       <c r="O97" s="53">
-        <v>23.990322580645199</v>
+        <v>26.1884615384615</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5947,43 +5947,43 @@
         <v>167</v>
       </c>
       <c r="C98" s="47">
-        <v>77.525000000000006</v>
+        <v>79.616666666666703</v>
       </c>
       <c r="D98" s="48">
-        <v>50.25</v>
+        <v>52.683333333333302</v>
       </c>
       <c r="E98" s="48">
-        <v>23.95</v>
+        <v>27.05</v>
       </c>
       <c r="F98" s="49">
-        <v>35.725000000000001</v>
+        <v>40.5</v>
       </c>
       <c r="G98" s="47">
-        <v>94.762500000000003</v>
+        <v>93.8333333333333</v>
       </c>
       <c r="H98" s="48">
-        <v>71.775000000000006</v>
+        <v>72.816666666666706</v>
       </c>
       <c r="I98" s="48">
-        <v>48.587499999999999</v>
+        <v>53.016666666666701</v>
       </c>
       <c r="J98" s="49">
-        <v>59.6</v>
+        <v>65.016666666666694</v>
       </c>
       <c r="K98" s="47">
-        <v>3374.2669999999998</v>
+        <v>3202.1190000000001</v>
       </c>
       <c r="L98" s="48">
-        <v>6.9485901003571504</v>
+        <v>7.608918708</v>
       </c>
       <c r="M98" s="48">
-        <v>10870.9432445</v>
+        <v>8769.7732445000001</v>
       </c>
       <c r="N98" s="49">
-        <v>22.426116987266699</v>
+        <v>22.5908406223333</v>
       </c>
       <c r="O98" s="49">
-        <v>32.924999999999997</v>
+        <v>38.590909090909101</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
@@ -6263,11 +6263,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{FA0B8DE1-619E-4B86-A94E-64DB15C5E5AF}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{72221D73-9728-4DDB-96E0-B643806CF199}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{83744D8A-DF3E-41DB-8BC8-D0956B8B7D49}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{3DC22BD6-D498-4F9D-BDF3-0B28E4D1BAF1}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{453637DA-C264-43FC-B5F3-5A69DCDED464}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{9F4E2F2E-19E6-48F0-BBA0-EA7F6EE58BA9}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{3371600E-639D-4E52-944F-F672B328FB54}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{7AED0889-22A9-44DD-86B6-B0797A1564F9}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{3350E8E1-140C-4B2C-A310-277EB5DB5006}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{DD9D125B-5E22-4067-9D87-ED3831D65D2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab12.xlsx
+++ b/AfDD_2023_Annex_Table_Tab12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41032197-CACC-4673-8A26-CB6598BB3005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1CAE9A2-F89B-4CAD-81B5-35A333500F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{964149E1-FFAF-4C3F-9487-D1EEDF47A8F6}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{A95EC4EC-CC91-4055-92EF-E8D008552DA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="179">
   <si>
     <t>Table 12: Digitalisation</t>
   </si>
@@ -561,16 +561,19 @@
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49FF147-E825-4951-B16A-B9DAA2F054DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24714FF8-2416-4D67-93A6-B7E2D937CCB0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6159,7 +6162,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C109" s="57"/>
       <c r="D109" s="57"/>
@@ -6177,7 +6180,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C110" s="57"/>
       <c r="D110" s="57"/>
@@ -6194,7 +6197,9 @@
       <c r="O110" s="57"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="C111" s="57"/>
       <c r="D111" s="57"/>
       <c r="E111" s="57"/>
@@ -6211,7 +6216,7 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C112" s="57"/>
       <c r="D112" s="57"/>
@@ -6229,7 +6234,7 @@
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C113" s="57"/>
       <c r="D113" s="57"/>
@@ -6263,13 +6268,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{9F4E2F2E-19E6-48F0-BBA0-EA7F6EE58BA9}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{3371600E-639D-4E52-944F-F672B328FB54}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{7AED0889-22A9-44DD-86B6-B0797A1564F9}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{3350E8E1-140C-4B2C-A310-277EB5DB5006}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{DD9D125B-5E22-4067-9D87-ED3831D65D2F}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{FD4D42D1-9516-48FC-8749-6B4A151AFBDD}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{A1F72E53-3B49-4C85-A91D-425EF4D02BA0}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{33C32C58-9ACE-4665-9702-B4786B6EADD8}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{A74732D8-9442-4836-8E97-D0A518537DEC}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{45F968EA-A491-42CE-9F50-D6407CF694CA}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{A8D048F7-DB79-48C2-84A8-C20B05075A38}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab12.xlsx
+++ b/AfDD_2023_Annex_Table_Tab12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1CAE9A2-F89B-4CAD-81B5-35A333500F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DD390A9-158F-42D6-8121-167AFCC8EA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{A95EC4EC-CC91-4055-92EF-E8D008552DA2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{2B4A0261-DEA4-466F-A600-660DD7DBF61B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab12'!$A$2:$O$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab12'!$A$1:$E$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -555,7 +555,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Source: Author's calculations based on World Bank Enterprise Survey (retrieved April 2020), UNCTADStat Online Data Centre (retrieved 25/08/2022), UNCTAD B2C E-Commerce Index Reports (2015-2020).</t>
+    <t>Source: Author's calculations based on World Bank Enterprise Survey (retrieved April 2020), UNCTADStat Online Data Centre (updated 22/09/2023), UNCTAD B2C E-Commerce Index Reports (2015-2020).</t>
   </si>
   <si>
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -1397,7 +1397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24714FF8-2416-4D67-93A6-B7E2D937CCB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7B52F3-CB32-45EE-A27B-5096CCE8ED8E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1405,14 +1405,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="12.36328125" style="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="12.33203125" style="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1430,7 +1430,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="74" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="72" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>31</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>33</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>37</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>31.95</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>39</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>41</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>43</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>47</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>49</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>51</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>53</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>55</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>37</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>58</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>60</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>62</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>64</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>66</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>68</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>70</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>58.4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>72</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>74</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>76</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>78</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>80</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>82</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>84</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>37</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>31.53</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>87</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>89</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>91</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>93</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>95</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>97</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>37</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>42.15</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>100</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>102</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>104</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>106</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>108</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>110</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>112</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>114</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>116</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>118</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>120</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>122</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>124</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>126</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>128</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
         <v>37</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>25.616666666666699</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>37</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>29.765909090909101</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
         <v>37</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>64.945794392523396</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="41" t="s">
         <v>37</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>48.859090909090902</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
         <v>37</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>44.869230769230803</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="41" t="s">
         <v>37</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>54.694701986755</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="41" t="s">
         <v>37</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>30.422222222222199</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="41" t="s">
         <v>37</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>27.984999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="41" t="s">
         <v>37</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>28.316666666666698</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="41" t="s">
         <v>37</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>21.112500000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
         <v>37</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>25.616666666666699</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="41" t="s">
         <v>37</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>32.159999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="41" t="s">
         <v>37</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>30.566666666666698</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="41" t="s">
         <v>37</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>43.26</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="41" t="s">
         <v>37</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>23.05</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="41" t="s">
         <v>37</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>55.977777777777803</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="41" t="s">
         <v>37</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>52.977777777777803</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="41" t="s">
         <v>37</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>84.325925925926001</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="41" t="s">
         <v>37</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>84.047368421052695</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="41" t="s">
         <v>37</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="41" t="s">
         <v>37</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>58.217647058823502</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="41" t="s">
         <v>37</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>29.967567567567599</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="41" t="s">
         <v>37</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>66.216666666666697</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="41" t="s">
         <v>37</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="41" t="s">
         <v>37</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="41" t="s">
         <v>37</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>34.125</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="41" t="s">
         <v>37</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>43.466666666666697</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="41" t="s">
         <v>37</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>47.533333333333303</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="41" t="s">
         <v>37</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>60.129032258064498</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="41" t="s">
         <v>37</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>82.027083333333394</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="41" t="s">
         <v>37</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>21.211538461538499</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="41" t="s">
         <v>37</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>28.077777777777801</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="41" t="s">
         <v>37</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="41" t="s">
         <v>37</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="41" t="s">
         <v>37</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="41" t="s">
         <v>37</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>47.213333333333303</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="41" t="s">
         <v>37</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>26.1884615384615</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="41" t="s">
         <v>37</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>38.590909090909101</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="54"/>
       <c r="B99" s="55"/>
       <c r="C99" s="56"/>
@@ -6006,7 +6006,7 @@
       <c r="N99" s="56"/>
       <c r="O99" s="56"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>168</v>
       </c>
@@ -6024,7 +6024,7 @@
       <c r="N100" s="57"/>
       <c r="O100" s="57"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>169</v>
       </c>
@@ -6042,7 +6042,7 @@
       <c r="N101" s="57"/>
       <c r="O101" s="57"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>170</v>
       </c>
@@ -6060,7 +6060,7 @@
       <c r="N102" s="57"/>
       <c r="O102" s="57"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>171</v>
       </c>
@@ -6078,7 +6078,7 @@
       <c r="N103" s="57"/>
       <c r="O103" s="57"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>172</v>
       </c>
@@ -6096,7 +6096,7 @@
       <c r="N104" s="57"/>
       <c r="O104" s="57"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C105" s="57"/>
       <c r="D105" s="57"/>
       <c r="E105" s="57"/>
@@ -6111,7 +6111,7 @@
       <c r="N105" s="57"/>
       <c r="O105" s="57"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C106" s="57"/>
       <c r="D106" s="57"/>
       <c r="E106" s="57"/>
@@ -6126,7 +6126,7 @@
       <c r="N106" s="57"/>
       <c r="O106" s="57"/>
     </row>
-    <row r="107" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="58" t="s">
         <v>173</v>
       </c>
@@ -6144,7 +6144,7 @@
       <c r="N107" s="57"/>
       <c r="O107" s="57"/>
     </row>
-    <row r="108" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="58"/>
       <c r="C108" s="57"/>
       <c r="D108" s="57"/>
@@ -6160,7 +6160,7 @@
       <c r="N108" s="57"/>
       <c r="O108" s="57"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>176</v>
       </c>
@@ -6178,7 +6178,7 @@
       <c r="N109" s="57"/>
       <c r="O109" s="57"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>177</v>
       </c>
@@ -6196,7 +6196,7 @@
       <c r="N110" s="57"/>
       <c r="O110" s="57"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>178</v>
       </c>
@@ -6214,7 +6214,7 @@
       <c r="N111" s="57"/>
       <c r="O111" s="57"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>174</v>
       </c>
@@ -6232,7 +6232,7 @@
       <c r="N112" s="57"/>
       <c r="O112" s="57"/>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>175</v>
       </c>
@@ -6250,7 +6250,7 @@
       <c r="N113" s="57"/>
       <c r="O113" s="57"/>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="57"/>
       <c r="D114" s="57"/>
@@ -6268,12 +6268,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{FD4D42D1-9516-48FC-8749-6B4A151AFBDD}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{A1F72E53-3B49-4C85-A91D-425EF4D02BA0}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{33C32C58-9ACE-4665-9702-B4786B6EADD8}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{A74732D8-9442-4836-8E97-D0A518537DEC}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{45F968EA-A491-42CE-9F50-D6407CF694CA}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{A8D048F7-DB79-48C2-84A8-C20B05075A38}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{F79C34F8-A8A8-4C0A-A850-27A1DF4F3781}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{5214ED95-FB9E-4792-A651-AB51F4A65DFA}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{C904ADE8-745B-4417-8930-A16152D6F8CA}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{31A15752-D0F1-4B8E-B46F-045F4085ED2E}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{D1D50931-4C4F-4108-A224-FD3BC343BA51}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{B46D061B-8AA1-4A6F-962A-AA465C0A9DA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId7"/>
